--- a/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.47432067886477</v>
+        <v>21.4743206788647</v>
       </c>
       <c r="C2">
-        <v>13.57936432792316</v>
+        <v>13.57936432792326</v>
       </c>
       <c r="D2">
-        <v>7.513365107013501</v>
+        <v>7.513365107013572</v>
       </c>
       <c r="E2">
-        <v>7.571706039129015</v>
+        <v>7.571706039128995</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.97266703617196</v>
+        <v>63.97266703617175</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.214776509377221</v>
+        <v>5.214776509377141</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.863030980572359</v>
+        <v>8.863030980572386</v>
       </c>
       <c r="L2">
-        <v>14.97737455975648</v>
+        <v>14.97737455975646</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.80138354000348</v>
+        <v>19.80138354000353</v>
       </c>
       <c r="C3">
         <v>12.49082133612294</v>
       </c>
       <c r="D3">
-        <v>7.09134000868199</v>
+        <v>7.091340008682007</v>
       </c>
       <c r="E3">
-        <v>7.3627514132559</v>
+        <v>7.362751413255952</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>60.00135757591683</v>
+        <v>60.00135757591693</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.175282214797299</v>
+        <v>5.175282214797364</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.471176909744631</v>
+        <v>8.471176909744647</v>
       </c>
       <c r="L3">
-        <v>13.83984200698992</v>
+        <v>13.83984200698993</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.74006934328685</v>
+        <v>18.7400693432868</v>
       </c>
       <c r="C4">
-        <v>11.80172500116712</v>
+        <v>11.80172500116701</v>
       </c>
       <c r="D4">
-        <v>6.829711743583537</v>
+        <v>6.829711743583597</v>
       </c>
       <c r="E4">
-        <v>7.23672536331355</v>
+        <v>7.2367253633136</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.50336829997214</v>
+        <v>57.50336829997239</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.151670919583522</v>
+        <v>5.151670919583454</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.29854100463434</v>
+        <v>18.29854100463442</v>
       </c>
       <c r="C5">
-        <v>11.51525545772046</v>
+        <v>11.51525545772044</v>
       </c>
       <c r="D5">
         <v>6.722479172433806</v>
       </c>
       <c r="E5">
-        <v>7.185892937041237</v>
+        <v>7.185892937041139</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.4700178084305</v>
+        <v>56.47001780843036</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.142169615720397</v>
+        <v>5.142169615720365</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.13809991178203</v>
+        <v>8.138099911781993</v>
       </c>
       <c r="L5">
-        <v>12.93377707573378</v>
+        <v>12.93377707573377</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.22466851186418</v>
+        <v>18.22466851186412</v>
       </c>
       <c r="C6">
         <v>11.46733378495035</v>
       </c>
       <c r="D6">
-        <v>6.704637100826662</v>
+        <v>6.704637100826738</v>
       </c>
       <c r="E6">
-        <v>7.177482744612992</v>
+        <v>7.177482744612938</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.29749416175255</v>
+        <v>56.29749416175254</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.140598145040442</v>
+        <v>5.140598145040338</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.122238620376795</v>
+        <v>8.122238620376756</v>
       </c>
       <c r="L6">
-        <v>12.9027218241666</v>
+        <v>12.90272182416663</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.73415184585753</v>
+        <v>18.73415184585754</v>
       </c>
       <c r="C7">
-        <v>11.79788502573185</v>
+        <v>11.79788502573189</v>
       </c>
       <c r="D7">
-        <v>6.828268022021479</v>
+        <v>6.828268022021467</v>
       </c>
       <c r="E7">
-        <v>7.236037751113293</v>
+        <v>7.23603775111329</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.48949486109035</v>
+        <v>57.48949486109012</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.151542342603882</v>
+        <v>5.151542342603815</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.232636973656424</v>
+        <v>8.232636973656438</v>
       </c>
       <c r="L7">
-        <v>13.11866655042047</v>
+        <v>13.11866655042049</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.90426995586784</v>
+        <v>20.90426995586776</v>
       </c>
       <c r="C8">
-        <v>13.20804913725427</v>
+        <v>13.20804913725419</v>
       </c>
       <c r="D8">
-        <v>7.368365851315647</v>
+        <v>7.368365851315634</v>
       </c>
       <c r="E8">
-        <v>7.49915424837824</v>
+        <v>7.499154248378232</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.61538251713033</v>
+        <v>62.61538251713058</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.201000375806109</v>
+        <v>5.201000375806115</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.727214542204324</v>
+        <v>8.727214542204308</v>
       </c>
       <c r="L8">
-        <v>14.59049793959427</v>
+        <v>14.59049793959423</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.91544469637311</v>
+        <v>24.91544469637345</v>
       </c>
       <c r="C9">
-        <v>15.83279142047499</v>
+        <v>15.83279142047473</v>
       </c>
       <c r="D9">
-        <v>8.40932521828551</v>
+        <v>8.409325218285616</v>
       </c>
       <c r="E9">
-        <v>8.036117702589351</v>
+        <v>8.036117702589458</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.2305699215671</v>
+        <v>72.23056992156823</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.305236439372706</v>
+        <v>5.305236439372727</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.725604324758773</v>
+        <v>9.725604324758812</v>
       </c>
       <c r="L9">
-        <v>17.29866793466212</v>
+        <v>17.29866793466226</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.76112744480938</v>
+        <v>27.76112744480942</v>
       </c>
       <c r="C10">
-        <v>17.71662378149669</v>
+        <v>17.71662378149673</v>
       </c>
       <c r="D10">
-        <v>9.169231197457863</v>
+        <v>9.169231197457881</v>
       </c>
       <c r="E10">
-        <v>8.449274134927185</v>
+        <v>8.44927413492722</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.10880963833029</v>
+        <v>79.10880963833013</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5.390078342808885</v>
+        <v>5.390078342808989</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.5930406482389</v>
+        <v>10.5930406482388</v>
       </c>
       <c r="L10">
-        <v>19.20231469974266</v>
+        <v>19.20231469974257</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.04846585281743</v>
+        <v>29.04846585281754</v>
       </c>
       <c r="C11">
-        <v>18.57628670595376</v>
+        <v>18.57628670595386</v>
       </c>
       <c r="D11">
-        <v>9.516557812458107</v>
+        <v>9.516557812458105</v>
       </c>
       <c r="E11">
-        <v>8.643266256665797</v>
+        <v>8.643266256665868</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.22577769122603</v>
+        <v>82.22577769122653</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.431648946673519</v>
+        <v>5.431648946673522</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.05993089249512</v>
+        <v>11.05993089249521</v>
       </c>
       <c r="L11">
-        <v>20.05919803849582</v>
+        <v>20.05919803849592</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.53658339070649</v>
+        <v>29.53658339070641</v>
       </c>
       <c r="C12">
-        <v>18.90358628351847</v>
+        <v>18.90358628351842</v>
       </c>
       <c r="D12">
-        <v>9.648661508826329</v>
+        <v>9.648661508826287</v>
       </c>
       <c r="E12">
-        <v>8.717833044250705</v>
+        <v>8.717833044250579</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.40773429627046</v>
+        <v>83.40773429626968</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.447953085588829</v>
+        <v>5.447953085588781</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.23632084794527</v>
+        <v>11.23632084794513</v>
       </c>
       <c r="L12">
-        <v>20.38342586503509</v>
+        <v>20.383425865035</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.43139893793977</v>
+        <v>29.43139893793982</v>
       </c>
       <c r="C13">
-        <v>18.8329919487093</v>
+        <v>18.83299194870942</v>
       </c>
       <c r="D13">
-        <v>9.620178099988879</v>
+        <v>9.620178099988843</v>
       </c>
       <c r="E13">
-        <v>8.701719940912261</v>
+        <v>8.701719940912259</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.15304164049742</v>
+        <v>83.15304164049819</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.44441412341965</v>
+        <v>5.444414123419688</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.19834051806178</v>
+        <v>11.19834051806174</v>
       </c>
       <c r="L13">
-        <v>20.31358911374313</v>
+        <v>20.3135891137431</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.08859974393559</v>
+        <v>29.08859974393539</v>
       </c>
       <c r="C14">
-        <v>18.60316924168975</v>
+        <v>18.60316924168979</v>
       </c>
       <c r="D14">
-        <v>9.527412068007873</v>
+        <v>9.527412068007797</v>
       </c>
       <c r="E14">
-        <v>8.649377108060971</v>
+        <v>8.64937710806092</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.32296240145789</v>
+        <v>82.32296240145722</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.432978119316465</v>
+        <v>5.432978119316449</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.0744473328824</v>
+        <v>11.07444733288232</v>
       </c>
       <c r="L14">
-        <v>20.08587053183426</v>
+        <v>20.08587053183415</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.87876468993361</v>
+        <v>28.87876468993357</v>
       </c>
       <c r="C15">
-        <v>18.46267318723661</v>
+        <v>18.46267318723645</v>
       </c>
       <c r="D15">
-        <v>9.470677780719734</v>
+        <v>9.470677780719647</v>
       </c>
       <c r="E15">
-        <v>8.617468006221594</v>
+        <v>8.617468006221578</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.81484410324555</v>
+        <v>81.81484410324536</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.426051109952552</v>
+        <v>5.426051109952574</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.9985235769392</v>
+        <v>10.99852357693912</v>
       </c>
       <c r="L15">
-        <v>19.9463890965091</v>
+        <v>19.94638909650899</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.67698446814309</v>
+        <v>27.6769844681431</v>
       </c>
       <c r="C16">
-        <v>17.6606064999581</v>
+        <v>17.66060649995801</v>
       </c>
       <c r="D16">
-        <v>9.14659226403702</v>
+        <v>9.14659226403692</v>
       </c>
       <c r="E16">
-        <v>8.436736523714531</v>
+        <v>8.436736523714488</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.90513126699548</v>
+        <v>78.90513126699467</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5.387432125567869</v>
+        <v>5.387432125567943</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.56243910794237</v>
+        <v>10.56243910794222</v>
       </c>
       <c r="L16">
-        <v>19.14621623647225</v>
+        <v>19.14621623647215</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.93894139433055</v>
+        <v>26.93894139433053</v>
       </c>
       <c r="C17">
-        <v>17.17012533784697</v>
+        <v>17.17012533784676</v>
       </c>
       <c r="D17">
-        <v>8.948405086670697</v>
+        <v>8.948405086670656</v>
       </c>
       <c r="E17">
-        <v>8.327558263155414</v>
+        <v>8.327558263155368</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.11913064708467</v>
+        <v>77.1191306470847</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.364587124602975</v>
+        <v>5.36458712460289</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.29358078839331</v>
+        <v>10.29358078839328</v>
       </c>
       <c r="L17">
-        <v>18.65367445306689</v>
+        <v>18.65367445306681</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.51364132637404</v>
+        <v>26.51364132637386</v>
       </c>
       <c r="C18">
-        <v>16.88816727372567</v>
+        <v>16.88816727372549</v>
       </c>
       <c r="D18">
-        <v>8.834541076819621</v>
+        <v>8.834541076819555</v>
       </c>
       <c r="E18">
-        <v>8.265312973289729</v>
+        <v>8.265312973289602</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.09049173915174</v>
+        <v>76.09049173915095</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5.351717487779293</v>
+        <v>5.351717487779217</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.1468823767204</v>
+        <v>10.14688237672039</v>
       </c>
       <c r="L18">
-        <v>18.36944507635218</v>
+        <v>18.36944507635209</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.36946146726678</v>
+        <v>26.36946146726701</v>
       </c>
       <c r="C19">
-        <v>16.79269129643879</v>
+        <v>16.7926912964391</v>
       </c>
       <c r="D19">
-        <v>8.796002070938819</v>
+        <v>8.796002070938906</v>
       </c>
       <c r="E19">
-        <v>8.244326390264133</v>
+        <v>8.244326390264186</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.74188916050944</v>
+        <v>75.74188916051037</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5.347402949303193</v>
+        <v>5.347402949303301</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.10842567643517</v>
+        <v>10.10842567643518</v>
       </c>
       <c r="L19">
-        <v>18.27302191579149</v>
+        <v>18.27302191579166</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.01757921516698</v>
+        <v>27.01757921516667</v>
       </c>
       <c r="C20">
-        <v>17.22231316495036</v>
+        <v>17.22231316495028</v>
       </c>
       <c r="D20">
-        <v>8.969487088620289</v>
+        <v>8.969487088620374</v>
       </c>
       <c r="E20">
-        <v>8.339121949583731</v>
+        <v>8.339121949583733</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.30937502719557</v>
+        <v>77.30937502719547</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.366990193585226</v>
+        <v>5.366990193585179</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.32226522632197</v>
+        <v>10.32226522632189</v>
       </c>
       <c r="L20">
-        <v>18.70619608993249</v>
+        <v>18.70619608993232</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.18925548159933</v>
+        <v>29.18925548159947</v>
       </c>
       <c r="C21">
-        <v>18.67061300057599</v>
+        <v>18.67061300057598</v>
       </c>
       <c r="D21">
-        <v>9.554640657866672</v>
+        <v>9.554640657866734</v>
       </c>
       <c r="E21">
-        <v>8.664719171602783</v>
+        <v>8.664719171602869</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.56670067755711</v>
+        <v>82.56670067755753</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.436320624542678</v>
+        <v>5.436320624542726</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>11.11084404117874</v>
       </c>
       <c r="L21">
-        <v>20.15275412725486</v>
+        <v>20.15275412725494</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.61339156952135</v>
+        <v>30.61339156952149</v>
       </c>
       <c r="C22">
-        <v>19.62838628469985</v>
+        <v>19.62838628470019</v>
       </c>
       <c r="D22">
-        <v>9.941806832107591</v>
+        <v>9.941806832107595</v>
       </c>
       <c r="E22">
-        <v>8.884135107305021</v>
+        <v>8.884135107305081</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.01454344735617</v>
+        <v>86.01454344735669</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.485003233723273</v>
+        <v>5.485003233723373</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.62418427557099</v>
+        <v>11.62418427557103</v>
       </c>
       <c r="L22">
-        <v>21.09739036205067</v>
+        <v>21.09739036205072</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.85218150233702</v>
+        <v>29.85218150233705</v>
       </c>
       <c r="C23">
-        <v>19.11561549606105</v>
+        <v>19.11561549606106</v>
       </c>
       <c r="D23">
-        <v>9.734173897800073</v>
+        <v>9.734173897800167</v>
       </c>
       <c r="E23">
-        <v>8.766323049490115</v>
+        <v>8.76632304949014</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.17187866585203</v>
+        <v>84.1718786658528</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.458656472648124</v>
+        <v>5.458656472648206</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.35017888788678</v>
+        <v>11.35017888788685</v>
       </c>
       <c r="L23">
-        <v>20.59286359813495</v>
+        <v>20.592863598135</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.98203025663364</v>
+        <v>26.98203025663356</v>
       </c>
       <c r="C24">
-        <v>17.19871906551601</v>
+        <v>17.19871906551582</v>
       </c>
       <c r="D24">
-        <v>8.95995570160872</v>
+        <v>8.959955701608644</v>
       </c>
       <c r="E24">
-        <v>8.333892395493461</v>
+        <v>8.33389239549339</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.22337152291058</v>
+        <v>77.22337152291007</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5.365902952575508</v>
+        <v>5.365902952575369</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.30929927595455</v>
+        <v>10.3092992759545</v>
       </c>
       <c r="L24">
-        <v>18.68245443672865</v>
+        <v>18.68245443672859</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.85222876486207</v>
+        <v>23.85222876486196</v>
       </c>
       <c r="C25">
-        <v>15.13403580391573</v>
+        <v>15.13403580391553</v>
       </c>
       <c r="D25">
-        <v>8.12923511256785</v>
+        <v>8.129235112567851</v>
       </c>
       <c r="E25">
-        <v>7.888108364102883</v>
+        <v>7.888108364102835</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.66957217028835</v>
+        <v>69.66957217028781</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5.275916110316788</v>
+        <v>5.27591611031681</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.452008996936335</v>
+        <v>9.452008996936375</v>
       </c>
       <c r="L25">
-        <v>16.58386075534185</v>
+        <v>16.58386075534183</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.4743206788647</v>
+        <v>21.47432067886477</v>
       </c>
       <c r="C2">
-        <v>13.57936432792326</v>
+        <v>13.57936432792316</v>
       </c>
       <c r="D2">
-        <v>7.513365107013572</v>
+        <v>7.513365107013501</v>
       </c>
       <c r="E2">
-        <v>7.571706039128995</v>
+        <v>7.571706039129015</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.97266703617175</v>
+        <v>63.97266703617196</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.214776509377141</v>
+        <v>5.214776509377221</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.863030980572386</v>
+        <v>8.863030980572359</v>
       </c>
       <c r="L2">
-        <v>14.97737455975646</v>
+        <v>14.97737455975648</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.80138354000353</v>
+        <v>19.80138354000348</v>
       </c>
       <c r="C3">
         <v>12.49082133612294</v>
       </c>
       <c r="D3">
-        <v>7.091340008682007</v>
+        <v>7.09134000868199</v>
       </c>
       <c r="E3">
-        <v>7.362751413255952</v>
+        <v>7.3627514132559</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>60.00135757591693</v>
+        <v>60.00135757591683</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.175282214797364</v>
+        <v>5.175282214797299</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.471176909744647</v>
+        <v>8.471176909744631</v>
       </c>
       <c r="L3">
-        <v>13.83984200698993</v>
+        <v>13.83984200698992</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.7400693432868</v>
+        <v>18.74006934328685</v>
       </c>
       <c r="C4">
-        <v>11.80172500116701</v>
+        <v>11.80172500116712</v>
       </c>
       <c r="D4">
-        <v>6.829711743583597</v>
+        <v>6.829711743583537</v>
       </c>
       <c r="E4">
-        <v>7.2367253633136</v>
+        <v>7.23672536331355</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.50336829997239</v>
+        <v>57.50336829997214</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.151670919583454</v>
+        <v>5.151670919583522</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.29854100463442</v>
+        <v>18.29854100463434</v>
       </c>
       <c r="C5">
-        <v>11.51525545772044</v>
+        <v>11.51525545772046</v>
       </c>
       <c r="D5">
         <v>6.722479172433806</v>
       </c>
       <c r="E5">
-        <v>7.185892937041139</v>
+        <v>7.185892937041237</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.47001780843036</v>
+        <v>56.4700178084305</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.142169615720365</v>
+        <v>5.142169615720397</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.138099911781993</v>
+        <v>8.13809991178203</v>
       </c>
       <c r="L5">
-        <v>12.93377707573377</v>
+        <v>12.93377707573378</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.22466851186412</v>
+        <v>18.22466851186418</v>
       </c>
       <c r="C6">
         <v>11.46733378495035</v>
       </c>
       <c r="D6">
-        <v>6.704637100826738</v>
+        <v>6.704637100826662</v>
       </c>
       <c r="E6">
-        <v>7.177482744612938</v>
+        <v>7.177482744612992</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.29749416175254</v>
+        <v>56.29749416175255</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.140598145040338</v>
+        <v>5.140598145040442</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.122238620376756</v>
+        <v>8.122238620376795</v>
       </c>
       <c r="L6">
-        <v>12.90272182416663</v>
+        <v>12.9027218241666</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.73415184585754</v>
+        <v>18.73415184585753</v>
       </c>
       <c r="C7">
-        <v>11.79788502573189</v>
+        <v>11.79788502573185</v>
       </c>
       <c r="D7">
-        <v>6.828268022021467</v>
+        <v>6.828268022021479</v>
       </c>
       <c r="E7">
-        <v>7.23603775111329</v>
+        <v>7.236037751113293</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.48949486109012</v>
+        <v>57.48949486109035</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.151542342603815</v>
+        <v>5.151542342603882</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.232636973656438</v>
+        <v>8.232636973656424</v>
       </c>
       <c r="L7">
-        <v>13.11866655042049</v>
+        <v>13.11866655042047</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.90426995586776</v>
+        <v>20.90426995586784</v>
       </c>
       <c r="C8">
-        <v>13.20804913725419</v>
+        <v>13.20804913725427</v>
       </c>
       <c r="D8">
-        <v>7.368365851315634</v>
+        <v>7.368365851315647</v>
       </c>
       <c r="E8">
-        <v>7.499154248378232</v>
+        <v>7.49915424837824</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.61538251713058</v>
+        <v>62.61538251713033</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.201000375806115</v>
+        <v>5.201000375806109</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.727214542204308</v>
+        <v>8.727214542204324</v>
       </c>
       <c r="L8">
-        <v>14.59049793959423</v>
+        <v>14.59049793959427</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.91544469637345</v>
+        <v>24.91544469637311</v>
       </c>
       <c r="C9">
-        <v>15.83279142047473</v>
+        <v>15.83279142047499</v>
       </c>
       <c r="D9">
-        <v>8.409325218285616</v>
+        <v>8.40932521828551</v>
       </c>
       <c r="E9">
-        <v>8.036117702589458</v>
+        <v>8.036117702589351</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.23056992156823</v>
+        <v>72.2305699215671</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.305236439372727</v>
+        <v>5.305236439372706</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.725604324758812</v>
+        <v>9.725604324758773</v>
       </c>
       <c r="L9">
-        <v>17.29866793466226</v>
+        <v>17.29866793466212</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.76112744480942</v>
+        <v>27.76112744480938</v>
       </c>
       <c r="C10">
-        <v>17.71662378149673</v>
+        <v>17.71662378149669</v>
       </c>
       <c r="D10">
-        <v>9.169231197457881</v>
+        <v>9.169231197457863</v>
       </c>
       <c r="E10">
-        <v>8.44927413492722</v>
+        <v>8.449274134927185</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.10880963833013</v>
+        <v>79.10880963833029</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5.390078342808989</v>
+        <v>5.390078342808885</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.5930406482388</v>
+        <v>10.5930406482389</v>
       </c>
       <c r="L10">
-        <v>19.20231469974257</v>
+        <v>19.20231469974266</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.04846585281754</v>
+        <v>29.04846585281743</v>
       </c>
       <c r="C11">
-        <v>18.57628670595386</v>
+        <v>18.57628670595376</v>
       </c>
       <c r="D11">
-        <v>9.516557812458105</v>
+        <v>9.516557812458107</v>
       </c>
       <c r="E11">
-        <v>8.643266256665868</v>
+        <v>8.643266256665797</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.22577769122653</v>
+        <v>82.22577769122603</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.431648946673522</v>
+        <v>5.431648946673519</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.05993089249521</v>
+        <v>11.05993089249512</v>
       </c>
       <c r="L11">
-        <v>20.05919803849592</v>
+        <v>20.05919803849582</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.53658339070641</v>
+        <v>29.53658339070649</v>
       </c>
       <c r="C12">
-        <v>18.90358628351842</v>
+        <v>18.90358628351847</v>
       </c>
       <c r="D12">
-        <v>9.648661508826287</v>
+        <v>9.648661508826329</v>
       </c>
       <c r="E12">
-        <v>8.717833044250579</v>
+        <v>8.717833044250705</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.40773429626968</v>
+        <v>83.40773429627046</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.447953085588781</v>
+        <v>5.447953085588829</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.23632084794513</v>
+        <v>11.23632084794527</v>
       </c>
       <c r="L12">
-        <v>20.383425865035</v>
+        <v>20.38342586503509</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.43139893793982</v>
+        <v>29.43139893793977</v>
       </c>
       <c r="C13">
-        <v>18.83299194870942</v>
+        <v>18.8329919487093</v>
       </c>
       <c r="D13">
-        <v>9.620178099988843</v>
+        <v>9.620178099988879</v>
       </c>
       <c r="E13">
-        <v>8.701719940912259</v>
+        <v>8.701719940912261</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.15304164049819</v>
+        <v>83.15304164049742</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.444414123419688</v>
+        <v>5.44441412341965</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.19834051806174</v>
+        <v>11.19834051806178</v>
       </c>
       <c r="L13">
-        <v>20.3135891137431</v>
+        <v>20.31358911374313</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.08859974393539</v>
+        <v>29.08859974393559</v>
       </c>
       <c r="C14">
-        <v>18.60316924168979</v>
+        <v>18.60316924168975</v>
       </c>
       <c r="D14">
-        <v>9.527412068007797</v>
+        <v>9.527412068007873</v>
       </c>
       <c r="E14">
-        <v>8.64937710806092</v>
+        <v>8.649377108060971</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.32296240145722</v>
+        <v>82.32296240145789</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.432978119316449</v>
+        <v>5.432978119316465</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.07444733288232</v>
+        <v>11.0744473328824</v>
       </c>
       <c r="L14">
-        <v>20.08587053183415</v>
+        <v>20.08587053183426</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.87876468993357</v>
+        <v>28.87876468993361</v>
       </c>
       <c r="C15">
-        <v>18.46267318723645</v>
+        <v>18.46267318723661</v>
       </c>
       <c r="D15">
-        <v>9.470677780719647</v>
+        <v>9.470677780719734</v>
       </c>
       <c r="E15">
-        <v>8.617468006221578</v>
+        <v>8.617468006221594</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.81484410324536</v>
+        <v>81.81484410324555</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.426051109952574</v>
+        <v>5.426051109952552</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.99852357693912</v>
+        <v>10.9985235769392</v>
       </c>
       <c r="L15">
-        <v>19.94638909650899</v>
+        <v>19.9463890965091</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.6769844681431</v>
+        <v>27.67698446814309</v>
       </c>
       <c r="C16">
-        <v>17.66060649995801</v>
+        <v>17.6606064999581</v>
       </c>
       <c r="D16">
-        <v>9.14659226403692</v>
+        <v>9.14659226403702</v>
       </c>
       <c r="E16">
-        <v>8.436736523714488</v>
+        <v>8.436736523714531</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.90513126699467</v>
+        <v>78.90513126699548</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5.387432125567943</v>
+        <v>5.387432125567869</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.56243910794222</v>
+        <v>10.56243910794237</v>
       </c>
       <c r="L16">
-        <v>19.14621623647215</v>
+        <v>19.14621623647225</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.93894139433053</v>
+        <v>26.93894139433055</v>
       </c>
       <c r="C17">
-        <v>17.17012533784676</v>
+        <v>17.17012533784697</v>
       </c>
       <c r="D17">
-        <v>8.948405086670656</v>
+        <v>8.948405086670697</v>
       </c>
       <c r="E17">
-        <v>8.327558263155368</v>
+        <v>8.327558263155414</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.1191306470847</v>
+        <v>77.11913064708467</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.36458712460289</v>
+        <v>5.364587124602975</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.29358078839328</v>
+        <v>10.29358078839331</v>
       </c>
       <c r="L17">
-        <v>18.65367445306681</v>
+        <v>18.65367445306689</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.51364132637386</v>
+        <v>26.51364132637404</v>
       </c>
       <c r="C18">
-        <v>16.88816727372549</v>
+        <v>16.88816727372567</v>
       </c>
       <c r="D18">
-        <v>8.834541076819555</v>
+        <v>8.834541076819621</v>
       </c>
       <c r="E18">
-        <v>8.265312973289602</v>
+        <v>8.265312973289729</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.09049173915095</v>
+        <v>76.09049173915174</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5.351717487779217</v>
+        <v>5.351717487779293</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.14688237672039</v>
+        <v>10.1468823767204</v>
       </c>
       <c r="L18">
-        <v>18.36944507635209</v>
+        <v>18.36944507635218</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.36946146726701</v>
+        <v>26.36946146726678</v>
       </c>
       <c r="C19">
-        <v>16.7926912964391</v>
+        <v>16.79269129643879</v>
       </c>
       <c r="D19">
-        <v>8.796002070938906</v>
+        <v>8.796002070938819</v>
       </c>
       <c r="E19">
-        <v>8.244326390264186</v>
+        <v>8.244326390264133</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.74188916051037</v>
+        <v>75.74188916050944</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5.347402949303301</v>
+        <v>5.347402949303193</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.10842567643518</v>
+        <v>10.10842567643517</v>
       </c>
       <c r="L19">
-        <v>18.27302191579166</v>
+        <v>18.27302191579149</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.01757921516667</v>
+        <v>27.01757921516698</v>
       </c>
       <c r="C20">
-        <v>17.22231316495028</v>
+        <v>17.22231316495036</v>
       </c>
       <c r="D20">
-        <v>8.969487088620374</v>
+        <v>8.969487088620289</v>
       </c>
       <c r="E20">
-        <v>8.339121949583733</v>
+        <v>8.339121949583731</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.30937502719547</v>
+        <v>77.30937502719557</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.366990193585179</v>
+        <v>5.366990193585226</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.32226522632189</v>
+        <v>10.32226522632197</v>
       </c>
       <c r="L20">
-        <v>18.70619608993232</v>
+        <v>18.70619608993249</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.18925548159947</v>
+        <v>29.18925548159933</v>
       </c>
       <c r="C21">
-        <v>18.67061300057598</v>
+        <v>18.67061300057599</v>
       </c>
       <c r="D21">
-        <v>9.554640657866734</v>
+        <v>9.554640657866672</v>
       </c>
       <c r="E21">
-        <v>8.664719171602869</v>
+        <v>8.664719171602783</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.56670067755753</v>
+        <v>82.56670067755711</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.436320624542726</v>
+        <v>5.436320624542678</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>11.11084404117874</v>
       </c>
       <c r="L21">
-        <v>20.15275412725494</v>
+        <v>20.15275412725486</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.61339156952149</v>
+        <v>30.61339156952135</v>
       </c>
       <c r="C22">
-        <v>19.62838628470019</v>
+        <v>19.62838628469985</v>
       </c>
       <c r="D22">
-        <v>9.941806832107595</v>
+        <v>9.941806832107591</v>
       </c>
       <c r="E22">
-        <v>8.884135107305081</v>
+        <v>8.884135107305021</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.01454344735669</v>
+        <v>86.01454344735617</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.485003233723373</v>
+        <v>5.485003233723273</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.62418427557103</v>
+        <v>11.62418427557099</v>
       </c>
       <c r="L22">
-        <v>21.09739036205072</v>
+        <v>21.09739036205067</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.85218150233705</v>
+        <v>29.85218150233702</v>
       </c>
       <c r="C23">
-        <v>19.11561549606106</v>
+        <v>19.11561549606105</v>
       </c>
       <c r="D23">
-        <v>9.734173897800167</v>
+        <v>9.734173897800073</v>
       </c>
       <c r="E23">
-        <v>8.76632304949014</v>
+        <v>8.766323049490115</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.1718786658528</v>
+        <v>84.17187866585203</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.458656472648206</v>
+        <v>5.458656472648124</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.35017888788685</v>
+        <v>11.35017888788678</v>
       </c>
       <c r="L23">
-        <v>20.592863598135</v>
+        <v>20.59286359813495</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.98203025663356</v>
+        <v>26.98203025663364</v>
       </c>
       <c r="C24">
-        <v>17.19871906551582</v>
+        <v>17.19871906551601</v>
       </c>
       <c r="D24">
-        <v>8.959955701608644</v>
+        <v>8.95995570160872</v>
       </c>
       <c r="E24">
-        <v>8.33389239549339</v>
+        <v>8.333892395493461</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.22337152291007</v>
+        <v>77.22337152291058</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5.365902952575369</v>
+        <v>5.365902952575508</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.3092992759545</v>
+        <v>10.30929927595455</v>
       </c>
       <c r="L24">
-        <v>18.68245443672859</v>
+        <v>18.68245443672865</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.85222876486196</v>
+        <v>23.85222876486207</v>
       </c>
       <c r="C25">
-        <v>15.13403580391553</v>
+        <v>15.13403580391573</v>
       </c>
       <c r="D25">
-        <v>8.129235112567851</v>
+        <v>8.12923511256785</v>
       </c>
       <c r="E25">
-        <v>7.888108364102835</v>
+        <v>7.888108364102883</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.66957217028781</v>
+        <v>69.66957217028835</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5.27591611031681</v>
+        <v>5.275916110316788</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.452008996936375</v>
+        <v>9.452008996936335</v>
       </c>
       <c r="L25">
-        <v>16.58386075534183</v>
+        <v>16.58386075534185</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.47432067886477</v>
+        <v>21.47102410934836</v>
       </c>
       <c r="C2">
-        <v>13.57936432792316</v>
+        <v>13.5746560032666</v>
       </c>
       <c r="D2">
-        <v>7.513365107013501</v>
+        <v>7.512918086296782</v>
       </c>
       <c r="E2">
-        <v>7.571706039129015</v>
+        <v>7.569753900732244</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.97266703617196</v>
+        <v>63.20077425273103</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>63.96030533150709</v>
       </c>
       <c r="I2">
-        <v>5.214776509377221</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.213189826699964</v>
       </c>
       <c r="K2">
-        <v>8.863030980572359</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>14.97737455975648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>8.86310889359582</v>
+      </c>
+      <c r="M2">
+        <v>14.97504612888632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.80138354000348</v>
+        <v>19.79911112822817</v>
       </c>
       <c r="C3">
-        <v>12.49082133612294</v>
+        <v>12.4873294931562</v>
       </c>
       <c r="D3">
-        <v>7.09134000868199</v>
+        <v>7.091022974702142</v>
       </c>
       <c r="E3">
-        <v>7.3627514132559</v>
+        <v>7.361201545806358</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>60.00135757591683</v>
+        <v>59.05674320216237</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>59.9924452738075</v>
       </c>
       <c r="I3">
-        <v>5.175282214797299</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.174049876782171</v>
       </c>
       <c r="K3">
-        <v>8.471176909744631</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>13.83984200698992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>8.471314719656025</v>
+      </c>
+      <c r="M3">
+        <v>13.83813160379244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.74006934328685</v>
+        <v>18.73835182312009</v>
       </c>
       <c r="C4">
-        <v>11.80172500116712</v>
+        <v>11.7989295726122</v>
       </c>
       <c r="D4">
-        <v>6.829711743583537</v>
+        <v>6.829464831569283</v>
       </c>
       <c r="E4">
-        <v>7.23672536331355</v>
+        <v>7.23542756724531</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.50336829997214</v>
+        <v>56.43999855859002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>57.49663849334725</v>
       </c>
       <c r="I4">
-        <v>5.151670919583522</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.150653738775322</v>
       </c>
       <c r="K4">
-        <v>8.23393285913737</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.12119854448571</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.234086924075971</v>
+      </c>
+      <c r="M4">
+        <v>13.12195453637799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.29854100463434</v>
+        <v>18.29703319671584</v>
       </c>
       <c r="C5">
-        <v>11.51525545772046</v>
+        <v>11.51273347522169</v>
       </c>
       <c r="D5">
-        <v>6.722479172433806</v>
+        <v>6.722258890984579</v>
       </c>
       <c r="E5">
-        <v>7.185892937041237</v>
+        <v>7.18469948815868</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.4700178084305</v>
+        <v>55.3549094534276</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>56.4642010372735</v>
       </c>
       <c r="I5">
-        <v>5.142169615720397</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.141239862854682</v>
       </c>
       <c r="K5">
-        <v>8.13809991178203</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>12.93377707573378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.138256023274481</v>
+      </c>
+      <c r="M5">
+        <v>12.93452525919471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.22466851186418</v>
+        <v>18.22319458756378</v>
       </c>
       <c r="C6">
-        <v>11.46733378495035</v>
+        <v>11.46485664300863</v>
       </c>
       <c r="D6">
-        <v>6.704637100826662</v>
+        <v>6.704421136564777</v>
       </c>
       <c r="E6">
-        <v>7.177482744612992</v>
+        <v>7.176306729205352</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.29749416175255</v>
+        <v>55.17358807543546</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>56.29183063113273</v>
       </c>
       <c r="I6">
-        <v>5.140598145040442</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.13968290367694</v>
       </c>
       <c r="K6">
-        <v>8.122238620376795</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>12.9027218241666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.122394810529824</v>
+      </c>
+      <c r="M6">
+        <v>12.90346780398572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.73415184585753</v>
+        <v>18.7324372179501</v>
       </c>
       <c r="C7">
-        <v>11.79788502573185</v>
+        <v>11.79509332409454</v>
       </c>
       <c r="D7">
-        <v>6.828268022021479</v>
+        <v>6.828021476447185</v>
       </c>
       <c r="E7">
-        <v>7.236037751113293</v>
+        <v>7.234741355328306</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.48949486109035</v>
+        <v>56.4254411027454</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>57.48277726294753</v>
       </c>
       <c r="I7">
-        <v>5.151542342603882</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.150526341466226</v>
       </c>
       <c r="K7">
-        <v>8.232636973656424</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.11866655042047</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.232791084027442</v>
+      </c>
+      <c r="M7">
+        <v>13.11942249846593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.90426995586784</v>
+        <v>20.9013433823643</v>
       </c>
       <c r="C8">
-        <v>13.20804913725427</v>
+        <v>13.203772312848</v>
       </c>
       <c r="D8">
-        <v>7.368365851315647</v>
+        <v>7.367965989333925</v>
       </c>
       <c r="E8">
-        <v>7.49915424837824</v>
+        <v>7.497340001340875</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.61538251713033</v>
+        <v>61.7864843381067</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>62.60420149370242</v>
       </c>
       <c r="I8">
-        <v>5.201000375806109</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.199536606710981</v>
       </c>
       <c r="K8">
-        <v>8.727214542204324</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>14.59049793959427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>8.727317751150759</v>
+      </c>
+      <c r="M8">
+        <v>14.58838999712329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.91544469637311</v>
+        <v>24.909415606877</v>
       </c>
       <c r="C9">
-        <v>15.83279142047499</v>
+        <v>15.82506319288811</v>
       </c>
       <c r="D9">
-        <v>8.40932521828551</v>
+        <v>8.408518947627758</v>
       </c>
       <c r="E9">
-        <v>8.036117702589351</v>
+        <v>8.033306134343619</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.2305699215671</v>
+        <v>71.76819247519876</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>72.21075867002783</v>
       </c>
       <c r="I9">
-        <v>5.305236439372706</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.302855188824151</v>
       </c>
       <c r="K9">
-        <v>9.725604324758773</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>17.29866793466212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>9.725411359048239</v>
+      </c>
+      <c r="M9">
+        <v>17.29476059876678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.76112744480938</v>
+        <v>27.75209531533483</v>
       </c>
       <c r="C10">
-        <v>17.71662378149669</v>
+        <v>17.70576581352974</v>
       </c>
       <c r="D10">
-        <v>9.169231197457863</v>
+        <v>9.168005834925665</v>
       </c>
       <c r="E10">
-        <v>8.449274134927185</v>
+        <v>8.445696283512866</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.10880963833029</v>
+        <v>78.86571065075584</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>79.08204893444437</v>
       </c>
       <c r="I10">
-        <v>5.390078342808885</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.386961240000207</v>
       </c>
       <c r="K10">
-        <v>10.5930406482389</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>19.20231469974266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>10.59122556817715</v>
+      </c>
+      <c r="M10">
+        <v>19.19671279477052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.04846585281743</v>
+        <v>29.03781026575458</v>
       </c>
       <c r="C11">
-        <v>18.57628670595376</v>
+        <v>18.5637847872276</v>
       </c>
       <c r="D11">
-        <v>9.516557812458107</v>
+        <v>9.5150959357396</v>
       </c>
       <c r="E11">
-        <v>8.643266256665797</v>
+        <v>8.63931656661198</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.22577769122603</v>
+        <v>82.07304157911786</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>82.19550398450086</v>
       </c>
       <c r="I11">
-        <v>5.431648946673519</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.428171100610155</v>
       </c>
       <c r="K11">
-        <v>11.05993089249512</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>20.05919803849582</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>11.05778070554145</v>
+      </c>
+      <c r="M11">
+        <v>20.05268538418518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.53658339070649</v>
+        <v>29.52526327079273</v>
       </c>
       <c r="C12">
-        <v>18.90358628351847</v>
+        <v>18.8904187488066</v>
       </c>
       <c r="D12">
-        <v>9.648661508826329</v>
+        <v>9.647100952171071</v>
       </c>
       <c r="E12">
-        <v>8.717833044250705</v>
+        <v>8.713737168899579</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.40773429627046</v>
+        <v>83.28797907612517</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>83.37605296345436</v>
       </c>
       <c r="I12">
-        <v>5.447953085588829</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.444333355618296</v>
       </c>
       <c r="K12">
-        <v>11.23632084794527</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>20.38342586503509</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>11.2340317893191</v>
+      </c>
+      <c r="M12">
+        <v>20.37654075976021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.43139893793977</v>
+        <v>29.42022440887639</v>
       </c>
       <c r="C13">
-        <v>18.8329919487093</v>
+        <v>18.81996991268356</v>
       </c>
       <c r="D13">
-        <v>9.620178099988879</v>
+        <v>9.618639252702641</v>
       </c>
       <c r="E13">
-        <v>8.701719940912261</v>
+        <v>8.697655829619254</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.15304164049742</v>
+        <v>83.02623668467611</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>83.12166743963452</v>
       </c>
       <c r="I13">
-        <v>5.44441412341965</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.440825216116999</v>
       </c>
       <c r="K13">
-        <v>11.19834051806178</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>20.31358911374313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>11.19608196704708</v>
+      </c>
+      <c r="M13">
+        <v>20.30678559956774</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.08859974393559</v>
+        <v>29.07789057390572</v>
       </c>
       <c r="C14">
-        <v>18.60316924168975</v>
+        <v>18.59061350705935</v>
       </c>
       <c r="D14">
-        <v>9.527412068007873</v>
+        <v>9.525942273671289</v>
       </c>
       <c r="E14">
-        <v>8.649377108060971</v>
+        <v>8.645415513589242</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.32296240145789</v>
+        <v>82.17296381915644</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>82.29257462723697</v>
       </c>
       <c r="I14">
-        <v>5.432978119316465</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.429488716999031</v>
       </c>
       <c r="K14">
-        <v>11.0744473328824</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>20.08587053183426</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>11.07228598431977</v>
+      </c>
+      <c r="M14">
+        <v>20.0793278415466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.87876468993361</v>
+        <v>28.8683336211438</v>
       </c>
       <c r="C15">
-        <v>18.46267318723661</v>
+        <v>18.45039705135052</v>
       </c>
       <c r="D15">
-        <v>9.470677780719734</v>
+        <v>9.469249003890996</v>
       </c>
       <c r="E15">
-        <v>8.617468006221594</v>
+        <v>8.613568431885566</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.81484410324555</v>
+        <v>81.650480858649</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>81.78504951156042</v>
       </c>
       <c r="I15">
-        <v>5.426051109952552</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.422621914747312</v>
       </c>
       <c r="K15">
-        <v>10.9985235769392</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>19.9463890965091</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>10.99642008900712</v>
+      </c>
+      <c r="M15">
+        <v>19.94000230717224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.67698446814309</v>
+        <v>27.6680522733024</v>
       </c>
       <c r="C16">
-        <v>17.6606064999581</v>
+        <v>17.64985065361351</v>
       </c>
       <c r="D16">
-        <v>9.14659226403702</v>
+        <v>9.145381241406092</v>
       </c>
       <c r="E16">
-        <v>8.436736523714531</v>
+        <v>8.433182348142603</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.90513126699548</v>
+        <v>78.65594764538417</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>78.87859099256829</v>
       </c>
       <c r="I16">
-        <v>5.387432125567869</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.384337955335659</v>
       </c>
       <c r="K16">
-        <v>10.56243910794237</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>19.14621623647225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>10.56064445831295</v>
+      </c>
+      <c r="M16">
+        <v>19.14067046125649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.93894139433055</v>
+        <v>26.93085513152579</v>
       </c>
       <c r="C17">
-        <v>17.17012533784697</v>
+        <v>17.16023884134703</v>
       </c>
       <c r="D17">
-        <v>8.948405086670697</v>
+        <v>8.947314392825186</v>
       </c>
       <c r="E17">
-        <v>8.327558263155414</v>
+        <v>8.324208801586082</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.11913064708467</v>
+        <v>76.81558934152599</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>77.09448045296033</v>
       </c>
       <c r="I17">
-        <v>5.364587124602975</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.361690884612212</v>
       </c>
       <c r="K17">
-        <v>10.29358078839331</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>18.65367445306689</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>10.2919581396257</v>
+      </c>
+      <c r="M17">
+        <v>18.64860430208542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.51364132637404</v>
+        <v>26.50601838195722</v>
       </c>
       <c r="C18">
-        <v>16.88816727372567</v>
+        <v>16.87876095216942</v>
       </c>
       <c r="D18">
-        <v>8.834541076819621</v>
+        <v>8.833515470764643</v>
       </c>
       <c r="E18">
-        <v>8.265312973289729</v>
+        <v>8.262079226283255</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.09049173915174</v>
+        <v>75.75479531192656</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>76.06689759867535</v>
       </c>
       <c r="I18">
-        <v>5.351717487779293</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.348932761704779</v>
       </c>
       <c r="K18">
-        <v>10.1468823767204</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>18.36944507635218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>10.14648591063072</v>
+      </c>
+      <c r="M18">
+        <v>18.36463589946141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.36946146726678</v>
+        <v>26.36199171799911</v>
       </c>
       <c r="C19">
-        <v>16.79269129643879</v>
+        <v>16.78344442801981</v>
       </c>
       <c r="D19">
-        <v>8.796002070938819</v>
+        <v>8.794997856435158</v>
       </c>
       <c r="E19">
-        <v>8.244326390264133</v>
+        <v>8.241131523491079</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.74188916050944</v>
+        <v>75.3951492052682</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>75.71864791588141</v>
       </c>
       <c r="I19">
-        <v>5.347402949303193</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.344655618351569</v>
       </c>
       <c r="K19">
-        <v>10.10842567643517</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>18.27302191579149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>10.10804983093684</v>
+      </c>
+      <c r="M19">
+        <v>18.26829912179353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.01757921516698</v>
+        <v>27.00940538407754</v>
       </c>
       <c r="C20">
-        <v>17.22231316495036</v>
+        <v>17.21233624899842</v>
       </c>
       <c r="D20">
-        <v>8.969487088620289</v>
+        <v>8.968384027435304</v>
       </c>
       <c r="E20">
-        <v>8.339121949583731</v>
+        <v>8.335750918457755</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.30937502719557</v>
+        <v>77.0117114764877</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>77.28452701092233</v>
       </c>
       <c r="I20">
-        <v>5.366990193585226</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.364073134243289</v>
       </c>
       <c r="K20">
-        <v>10.32226522632197</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>18.70619608993249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>10.32062485105686</v>
+      </c>
+      <c r="M20">
+        <v>18.70107665651224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.18925548159933</v>
+        <v>29.17841110185542</v>
       </c>
       <c r="C21">
-        <v>18.67061300057599</v>
+        <v>18.65792158428839</v>
       </c>
       <c r="D21">
-        <v>9.554640657866672</v>
+        <v>9.553150853657311</v>
       </c>
       <c r="E21">
-        <v>8.664719171602783</v>
+        <v>8.660727631659935</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.56670067755711</v>
+        <v>82.42354733459058</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>82.53602552771873</v>
       </c>
       <c r="I21">
-        <v>5.436320624542678</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.432802153526644</v>
       </c>
       <c r="K21">
-        <v>11.11084404117874</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>20.15275412725486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>11.10865449953508</v>
+      </c>
+      <c r="M21">
+        <v>20.1461356490111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.61339156952135</v>
+        <v>30.60050167030669</v>
       </c>
       <c r="C22">
-        <v>19.62838628469985</v>
+        <v>19.61366070599851</v>
       </c>
       <c r="D22">
-        <v>9.941806832107591</v>
+        <v>9.939960471600367</v>
       </c>
       <c r="E22">
-        <v>8.884135107305021</v>
+        <v>8.879705070111461</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.01454344735617</v>
+        <v>85.96520799684471</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>85.9795885168141</v>
       </c>
       <c r="I22">
-        <v>5.485003233723273</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.481059761939445</v>
       </c>
       <c r="K22">
-        <v>11.62418427557099</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>21.09739036205067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>11.62156341406074</v>
+      </c>
+      <c r="M22">
+        <v>21.08962557917198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.85218150233702</v>
+        <v>29.84041646950971</v>
       </c>
       <c r="C23">
-        <v>19.11561549606105</v>
+        <v>19.10200442436742</v>
       </c>
       <c r="D23">
-        <v>9.734173897800073</v>
+        <v>9.732546692034491</v>
       </c>
       <c r="E23">
-        <v>8.766323049490115</v>
+        <v>8.762130966922534</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.17187866585203</v>
+        <v>84.07309000675319</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>84.1392627856612</v>
       </c>
       <c r="I23">
-        <v>5.458656472648124</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.45494342480518</v>
       </c>
       <c r="K23">
-        <v>11.35017888788678</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>20.59286359813495</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>11.34779631727685</v>
+      </c>
+      <c r="M23">
+        <v>20.58572917335445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.98203025663364</v>
+        <v>26.97389608597768</v>
       </c>
       <c r="C24">
-        <v>17.19871906551601</v>
+        <v>17.18878308853181</v>
       </c>
       <c r="D24">
-        <v>8.95995570160872</v>
+        <v>8.958858244264801</v>
       </c>
       <c r="E24">
-        <v>8.333892395493461</v>
+        <v>8.330531121984173</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.22337152291058</v>
+        <v>76.92305346404794</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>77.1986130354053</v>
       </c>
       <c r="I24">
-        <v>5.365902952575508</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.362995312652247</v>
       </c>
       <c r="K24">
-        <v>10.30929927595455</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>18.68245443672865</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>10.30766693143183</v>
+      </c>
+      <c r="M24">
+        <v>18.67735732221708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.85222876486207</v>
+        <v>23.84714025126615</v>
       </c>
       <c r="C25">
-        <v>15.13403580391573</v>
+        <v>15.12732172770366</v>
       </c>
       <c r="D25">
-        <v>8.12923511256785</v>
+        <v>8.128554868287399</v>
       </c>
       <c r="E25">
-        <v>7.888108364102883</v>
+        <v>7.885568385486557</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.66957217028835</v>
+        <v>69.11734305145988</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>69.65214352621825</v>
       </c>
       <c r="I25">
-        <v>5.275916110316788</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.27379056864538</v>
       </c>
       <c r="K25">
-        <v>9.452008996936335</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>16.58386075534185</v>
+        <v>9.451922680381122</v>
+      </c>
+      <c r="M25">
+        <v>16.5804902978048</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.47102410934836</v>
+        <v>31.47731025243857</v>
       </c>
       <c r="C2">
-        <v>13.5746560032666</v>
+        <v>16.13863887629612</v>
       </c>
       <c r="D2">
-        <v>7.512918086296782</v>
+        <v>8.146384601882719</v>
       </c>
       <c r="E2">
-        <v>7.569753900732244</v>
+        <v>6.789189136913398</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.20077425273103</v>
+        <v>2.138113355440912</v>
       </c>
       <c r="H2">
-        <v>63.96030533150709</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.213189826699964</v>
+        <v>4.630245276273026</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.86310889359582</v>
+        <v>9.702565486429386</v>
       </c>
       <c r="M2">
-        <v>14.97504612888632</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>16.25730830717865</v>
+      </c>
+      <c r="O2">
+        <v>39.07431155197137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.79911112822817</v>
+        <v>29.76173360184348</v>
       </c>
       <c r="C3">
-        <v>12.4873294931562</v>
+        <v>14.96694299763627</v>
       </c>
       <c r="D3">
-        <v>7.091022974702142</v>
+        <v>8.00764488040025</v>
       </c>
       <c r="E3">
-        <v>7.361201545806358</v>
+        <v>6.830048403715391</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.05674320216237</v>
+        <v>2.153092654211807</v>
       </c>
       <c r="H3">
-        <v>59.9924452738075</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.174049876782171</v>
+        <v>4.611437432617652</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.471314719656025</v>
+        <v>9.481565721551664</v>
       </c>
       <c r="M3">
-        <v>13.83813160379244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>16.43845077073028</v>
+      </c>
+      <c r="O3">
+        <v>37.91871086616504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.73835182312009</v>
+        <v>28.69306863991967</v>
       </c>
       <c r="C4">
-        <v>11.7989295726122</v>
+        <v>14.25680197624033</v>
       </c>
       <c r="D4">
-        <v>6.829464831569283</v>
+        <v>7.927804305951826</v>
       </c>
       <c r="E4">
-        <v>7.23542756724531</v>
+        <v>6.857284475788165</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.43999855859002</v>
+        <v>2.162443465742849</v>
       </c>
       <c r="H4">
-        <v>57.49663849334725</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.150653738775322</v>
+        <v>4.60017515571476</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.234086924075971</v>
+        <v>9.351725688427873</v>
       </c>
       <c r="M4">
-        <v>13.12195453637799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>16.55494774010702</v>
+      </c>
+      <c r="O4">
+        <v>37.2349424226735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.29703319671584</v>
+        <v>28.25402941671574</v>
       </c>
       <c r="C5">
-        <v>11.51273347522169</v>
+        <v>13.96127904607031</v>
       </c>
       <c r="D5">
-        <v>6.722258890984579</v>
+        <v>7.896573477759586</v>
       </c>
       <c r="E5">
-        <v>7.18469948815868</v>
+        <v>6.868915171843287</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.3549094534276</v>
+        <v>2.166297906499516</v>
       </c>
       <c r="H5">
-        <v>56.4642010372735</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.141239862854682</v>
+        <v>4.595646804734039</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.138256023274481</v>
+        <v>9.300263594677965</v>
       </c>
       <c r="M5">
-        <v>12.93452525919471</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>16.60369948713854</v>
+      </c>
+      <c r="O5">
+        <v>36.96265520844235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.22319458756378</v>
+        <v>28.18092391938187</v>
       </c>
       <c r="C6">
-        <v>11.46485664300863</v>
+        <v>13.91183742408045</v>
       </c>
       <c r="D6">
-        <v>6.704421136564777</v>
+        <v>7.891465317151535</v>
       </c>
       <c r="E6">
-        <v>7.176306729205352</v>
+        <v>6.870878329077719</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.17358807543546</v>
+        <v>2.166940730999686</v>
       </c>
       <c r="H6">
-        <v>56.29183063113273</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.13968290367694</v>
+        <v>4.594898274475775</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.122394810529824</v>
+        <v>9.291805240889623</v>
       </c>
       <c r="M6">
-        <v>12.90346780398572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>16.61187062499881</v>
+      </c>
+      <c r="O6">
+        <v>36.917822660818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.7324372179501</v>
+        <v>28.68716149502761</v>
       </c>
       <c r="C7">
-        <v>11.79509332409454</v>
+        <v>14.2528412877125</v>
       </c>
       <c r="D7">
-        <v>6.828021476447185</v>
+        <v>7.927377883368431</v>
       </c>
       <c r="E7">
-        <v>7.234741355328306</v>
+        <v>6.857439188733956</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.4254411027454</v>
+        <v>2.162495263643354</v>
       </c>
       <c r="H7">
-        <v>57.48277726294753</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.150526341466226</v>
+        <v>4.600113850690224</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.232791084027442</v>
+        <v>9.351025814737524</v>
       </c>
       <c r="M7">
-        <v>13.11942249846593</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>16.55560010529484</v>
+      </c>
+      <c r="O7">
+        <v>37.23124468364868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.9013433823643</v>
+        <v>30.88909291417226</v>
       </c>
       <c r="C8">
-        <v>13.203772312848</v>
+        <v>15.73729774576225</v>
       </c>
       <c r="D8">
-        <v>7.367965989333925</v>
+        <v>8.097412912977889</v>
       </c>
       <c r="E8">
-        <v>7.497340001340875</v>
+        <v>6.80282614752497</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>61.7864843381067</v>
+        <v>2.143249745202787</v>
       </c>
       <c r="H8">
-        <v>62.60420149370242</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.199536606710981</v>
+        <v>4.623694151198251</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.727317751150759</v>
+        <v>9.625133956530554</v>
       </c>
       <c r="M8">
-        <v>14.58838999712329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>16.31863992572619</v>
+      </c>
+      <c r="O8">
+        <v>38.67042377403993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.909415606877</v>
+        <v>35.0794442680846</v>
       </c>
       <c r="C9">
-        <v>15.82506319288811</v>
+        <v>18.52651846463274</v>
       </c>
       <c r="D9">
-        <v>8.408518947627758</v>
+        <v>8.475259182818167</v>
       </c>
       <c r="E9">
-        <v>8.033306134343619</v>
+        <v>6.713212394272151</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>71.76819247519876</v>
+        <v>2.106453893703869</v>
       </c>
       <c r="H9">
-        <v>72.21075867002783</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.302855188824151</v>
+        <v>4.672761467248687</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.725411359048239</v>
+        <v>10.21054613192083</v>
       </c>
       <c r="M9">
-        <v>17.29476059876678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>15.89846967403425</v>
+      </c>
+      <c r="O9">
+        <v>41.70529950503928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.75209531533483</v>
+        <v>38.0821266735113</v>
       </c>
       <c r="C10">
-        <v>17.70576581352974</v>
+        <v>20.44989531526592</v>
       </c>
       <c r="D10">
-        <v>9.168005834925665</v>
+        <v>8.783218227840601</v>
       </c>
       <c r="E10">
-        <v>8.445696283512866</v>
+        <v>6.658741892065311</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.86571065075584</v>
+        <v>2.079553080854911</v>
       </c>
       <c r="H10">
-        <v>79.08204893444437</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.386961240000207</v>
+        <v>4.711452666681128</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.59122556817715</v>
+        <v>10.67271963110794</v>
       </c>
       <c r="M10">
-        <v>19.19671279477052</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>15.62154768584123</v>
+      </c>
+      <c r="O10">
+        <v>44.08137314451903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.03781026575458</v>
+        <v>39.43511139691628</v>
       </c>
       <c r="C11">
-        <v>18.5637847872276</v>
+        <v>21.30229052846042</v>
       </c>
       <c r="D11">
-        <v>9.5150959357396</v>
+        <v>8.930846197722655</v>
       </c>
       <c r="E11">
-        <v>8.63931656661198</v>
+        <v>6.636625767643343</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.07304157911786</v>
+        <v>2.06722332865735</v>
       </c>
       <c r="H11">
-        <v>82.19550398450086</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.428171100610155</v>
+        <v>4.729883028548318</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.05778070554145</v>
+        <v>10.89092231364478</v>
       </c>
       <c r="M11">
-        <v>20.05268538418518</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>15.50385729737977</v>
+      </c>
+      <c r="O11">
+        <v>45.19985398383881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.52526327079273</v>
+        <v>39.94610023205833</v>
       </c>
       <c r="C12">
-        <v>18.8904187488066</v>
+        <v>21.62231726592032</v>
       </c>
       <c r="D12">
-        <v>9.647100952171071</v>
+        <v>8.987932874427216</v>
       </c>
       <c r="E12">
-        <v>8.713737168899579</v>
+        <v>6.628653885913477</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.28797907612517</v>
+        <v>2.062528783563818</v>
       </c>
       <c r="H12">
-        <v>83.37605296345436</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.444333355618296</v>
+        <v>4.737007796896988</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.2340317893191</v>
+        <v>10.97480992062029</v>
       </c>
       <c r="M12">
-        <v>20.37654075976021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>15.46063352536196</v>
+      </c>
+      <c r="O12">
+        <v>45.62947584945854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.42022440887639</v>
+        <v>39.83609986401977</v>
       </c>
       <c r="C13">
-        <v>18.81996991268356</v>
+        <v>21.5535076038808</v>
       </c>
       <c r="D13">
-        <v>9.618639252702641</v>
+        <v>8.975583775682573</v>
       </c>
       <c r="E13">
-        <v>8.697655829619254</v>
+        <v>6.630352489769622</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.02623668467611</v>
+        <v>2.063541193037893</v>
       </c>
       <c r="H13">
-        <v>83.12166743963452</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.440825216116999</v>
+        <v>4.73546640024271</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.19608196704708</v>
+        <v>10.95668502788085</v>
       </c>
       <c r="M13">
-        <v>20.30678559956774</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>15.46988001270586</v>
+      </c>
+      <c r="O13">
+        <v>45.53666595691826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.07789057390572</v>
+        <v>39.47717436682031</v>
       </c>
       <c r="C14">
-        <v>18.59061350705935</v>
+        <v>21.32867144052005</v>
       </c>
       <c r="D14">
-        <v>9.525942273671289</v>
+        <v>8.935518386344478</v>
       </c>
       <c r="E14">
-        <v>8.645415513589242</v>
+        <v>6.63596171100654</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.17296381915644</v>
+        <v>2.066837695607618</v>
       </c>
       <c r="H14">
-        <v>82.29257462723697</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.429488716999031</v>
+        <v>4.730466100432682</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.07228598431977</v>
+        <v>10.89779778466009</v>
       </c>
       <c r="M14">
-        <v>20.0793278415466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>15.50027334135828</v>
+      </c>
+      <c r="O14">
+        <v>45.2350728762891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.8683336211438</v>
+        <v>39.2571636994097</v>
       </c>
       <c r="C15">
-        <v>18.45039705135052</v>
+        <v>21.19060985399284</v>
       </c>
       <c r="D15">
-        <v>9.469249003890996</v>
+        <v>8.911134614188107</v>
       </c>
       <c r="E15">
-        <v>8.613568431885566</v>
+        <v>6.639450663592163</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.650480858649</v>
+        <v>2.068853171334614</v>
       </c>
       <c r="H15">
-        <v>81.78504951156042</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.422621914747312</v>
+        <v>4.727423101363063</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.99642008900712</v>
+        <v>10.86189559696927</v>
       </c>
       <c r="M15">
-        <v>19.94000230717224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>15.51907013100834</v>
+      </c>
+      <c r="O15">
+        <v>45.05115316576023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.6680522733024</v>
+        <v>37.99348419831799</v>
       </c>
       <c r="C16">
-        <v>17.64985065361351</v>
+        <v>20.39377488533092</v>
       </c>
       <c r="D16">
-        <v>9.145381241406092</v>
+        <v>8.773730028637926</v>
       </c>
       <c r="E16">
-        <v>8.433182348142603</v>
+        <v>6.660242454424196</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.65594764538417</v>
+        <v>2.080356002122009</v>
       </c>
       <c r="H16">
-        <v>78.87859099256829</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.384337955335659</v>
+        <v>4.710267026513344</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.56064445831295</v>
+        <v>10.65862874649494</v>
       </c>
       <c r="M16">
-        <v>19.14067046125649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>15.62941793347716</v>
+      </c>
+      <c r="O16">
+        <v>44.00908732710672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.93085513152579</v>
+        <v>37.21524120117545</v>
       </c>
       <c r="C17">
-        <v>17.16023884134703</v>
+        <v>19.89948283388415</v>
       </c>
       <c r="D17">
-        <v>8.947314392825186</v>
+        <v>8.691430805527123</v>
       </c>
       <c r="E17">
-        <v>8.324208801586082</v>
+        <v>6.673692781857303</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.81558934152599</v>
+        <v>2.087380899118734</v>
       </c>
       <c r="H17">
-        <v>77.09448045296033</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.361690884612212</v>
+        <v>4.699971978828342</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.2919581396257</v>
+        <v>10.53604064924193</v>
       </c>
       <c r="M17">
-        <v>18.64860430208542</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>15.69933206205732</v>
+      </c>
+      <c r="O17">
+        <v>43.3798614279988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.50601838195722</v>
+        <v>36.76635634422129</v>
       </c>
       <c r="C18">
-        <v>16.87876095216942</v>
+        <v>19.61302166864007</v>
       </c>
       <c r="D18">
-        <v>8.833515470764643</v>
+        <v>8.644796652949163</v>
       </c>
       <c r="E18">
-        <v>8.262079226283255</v>
+        <v>6.68167829674217</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.75479531192656</v>
+        <v>2.091413582177848</v>
       </c>
       <c r="H18">
-        <v>76.06689759867535</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.348932761704779</v>
+        <v>4.694126781401475</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.14648591063072</v>
+        <v>10.46627160508786</v>
       </c>
       <c r="M18">
-        <v>18.36463589946141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>15.74031356535398</v>
+      </c>
+      <c r="O18">
+        <v>43.02143540088631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.36199171799911</v>
+        <v>36.61414289528942</v>
       </c>
       <c r="C19">
-        <v>16.78344442801981</v>
+        <v>19.51564693108262</v>
       </c>
       <c r="D19">
-        <v>8.794997856435158</v>
+        <v>8.629125057586215</v>
       </c>
       <c r="E19">
-        <v>8.241131523491079</v>
+        <v>6.684424305572325</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.3951492052682</v>
+        <v>2.092777968983403</v>
       </c>
       <c r="H19">
-        <v>75.71864791588141</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.344655618351569</v>
+        <v>4.692160070905246</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.10804983093684</v>
+        <v>10.44277320549664</v>
       </c>
       <c r="M19">
-        <v>18.26829912179353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>15.75431713318426</v>
+      </c>
+      <c r="O19">
+        <v>42.90066017442096</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.00940538407754</v>
+        <v>37.29821385343188</v>
       </c>
       <c r="C20">
-        <v>17.21233624899842</v>
+        <v>19.95232111976275</v>
       </c>
       <c r="D20">
-        <v>8.968384027435304</v>
+        <v>8.700118375890657</v>
       </c>
       <c r="E20">
-        <v>8.335750918457755</v>
+        <v>6.672235041358977</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.0117114764877</v>
+        <v>2.086633981220352</v>
       </c>
       <c r="H20">
-        <v>77.28452701092233</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.364073134243289</v>
+        <v>4.701059838883467</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.32062485105686</v>
+        <v>10.54901300970029</v>
       </c>
       <c r="M20">
-        <v>18.70107665651224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>15.69180902678588</v>
+      </c>
+      <c r="O20">
+        <v>43.44647834091175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.17841110185542</v>
+        <v>39.58263132355371</v>
       </c>
       <c r="C21">
-        <v>18.65792158428839</v>
+        <v>21.394781733658</v>
       </c>
       <c r="D21">
-        <v>9.553150853657311</v>
+        <v>8.947253541103857</v>
       </c>
       <c r="E21">
-        <v>8.660727631659935</v>
+        <v>6.634303030765909</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.42354733459058</v>
+        <v>2.065870234793108</v>
       </c>
       <c r="H21">
-        <v>82.53602552771873</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.432802153526644</v>
+        <v>4.731930622874243</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.10865449953508</v>
+        <v>10.91505913997447</v>
       </c>
       <c r="M21">
-        <v>20.1461356490111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>15.49130825118501</v>
+      </c>
+      <c r="O21">
+        <v>45.32348679352928</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.60050167030669</v>
+        <v>41.06974047245684</v>
       </c>
       <c r="C22">
-        <v>19.61366070599851</v>
+        <v>22.32174357758369</v>
       </c>
       <c r="D22">
-        <v>9.939960471600367</v>
+        <v>9.115731577099192</v>
       </c>
       <c r="E22">
-        <v>8.879705070111461</v>
+        <v>6.611873456105552</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.96520799684471</v>
+        <v>2.052143654018477</v>
       </c>
       <c r="H22">
-        <v>85.9795885168141</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.481059761939445</v>
+        <v>4.752971307122037</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.62156341406074</v>
+        <v>11.16170985440083</v>
       </c>
       <c r="M22">
-        <v>21.08962557917198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>15.36819475850952</v>
+      </c>
+      <c r="O22">
+        <v>46.5861089618323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.84041646950971</v>
+        <v>40.27574724118414</v>
       </c>
       <c r="C23">
-        <v>19.10200442436742</v>
+        <v>21.8282624849915</v>
       </c>
       <c r="D23">
-        <v>9.732546692034491</v>
+        <v>9.025135384878729</v>
       </c>
       <c r="E23">
-        <v>8.762130966922534</v>
+        <v>6.623620860905835</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.07309000675319</v>
+        <v>2.059488754137205</v>
       </c>
       <c r="H23">
-        <v>84.1392627856612</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.45494342480518</v>
+        <v>4.741652246060773</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.34779631727685</v>
+        <v>11.02934152358263</v>
       </c>
       <c r="M23">
-        <v>20.58572917335445</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>15.43311789279229</v>
+      </c>
+      <c r="O23">
+        <v>45.90866369852461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.97389608597768</v>
+        <v>37.26070650847173</v>
       </c>
       <c r="C24">
-        <v>17.18878308853181</v>
+        <v>19.92844008659287</v>
       </c>
       <c r="D24">
-        <v>8.958858244264801</v>
+        <v>8.696188612027017</v>
       </c>
       <c r="E24">
-        <v>8.330531121984173</v>
+        <v>6.672893300065281</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.92305346404794</v>
+        <v>2.086971680677128</v>
       </c>
       <c r="H24">
-        <v>77.1986130354053</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.362995312652247</v>
+        <v>4.700567790119087</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.30766693143183</v>
+        <v>10.54314600690322</v>
       </c>
       <c r="M24">
-        <v>18.67735732221708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>15.69520775105958</v>
+      </c>
+      <c r="O24">
+        <v>43.41635052809492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.84714025126615</v>
+        <v>33.95984248380734</v>
       </c>
       <c r="C25">
-        <v>15.12732172770366</v>
+        <v>17.79544618460454</v>
       </c>
       <c r="D25">
-        <v>8.128554868287399</v>
+        <v>8.367981298597513</v>
       </c>
       <c r="E25">
-        <v>7.885568385486557</v>
+        <v>6.735516898475516</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.11734305145988</v>
+        <v>2.11634880256817</v>
       </c>
       <c r="H25">
-        <v>69.65214352621825</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.27379056864538</v>
+        <v>4.659098858656718</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.451922680381122</v>
+        <v>10.04680529208485</v>
       </c>
       <c r="M25">
-        <v>16.5804902978048</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>16.00695237429495</v>
+      </c>
+      <c r="O25">
+        <v>40.86011192449129</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31.47731025243857</v>
+        <v>24.15865793370584</v>
       </c>
       <c r="C2">
-        <v>16.13863887629612</v>
+        <v>13.36079391577166</v>
       </c>
       <c r="D2">
-        <v>8.146384601882719</v>
+        <v>8.841243650011059</v>
       </c>
       <c r="E2">
-        <v>6.789189136913398</v>
+        <v>7.950637709456064</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.138113355440912</v>
+        <v>23.34520941795819</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.112852773118885</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>13.61104740128801</v>
       </c>
       <c r="J2">
-        <v>4.630245276273026</v>
+        <v>4.995772807799446</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.702565486429386</v>
+        <v>8.578718271363121</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.25730830717865</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>39.07431155197137</v>
+        <v>14.99828374759946</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>29.76173360184348</v>
+        <v>22.53924980258068</v>
       </c>
       <c r="C3">
-        <v>14.96694299763627</v>
+        <v>12.68971349505049</v>
       </c>
       <c r="D3">
-        <v>8.00764488040025</v>
+        <v>8.688352221336352</v>
       </c>
       <c r="E3">
-        <v>6.830048403715391</v>
+        <v>8.019560888163792</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.153092654211807</v>
+        <v>23.12111458265402</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.206904966898733</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>13.97445196467152</v>
       </c>
       <c r="J3">
-        <v>4.611437432617652</v>
+        <v>5.027168603283192</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.481565721551664</v>
+        <v>8.312569830881882</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.43845077073028</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>37.91871086616504</v>
+        <v>15.06755555753489</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.69306863991967</v>
+        <v>21.48503950392136</v>
       </c>
       <c r="C4">
-        <v>14.25680197624033</v>
+        <v>12.25948642045469</v>
       </c>
       <c r="D4">
-        <v>7.927804305951826</v>
+        <v>8.599026485975358</v>
       </c>
       <c r="E4">
-        <v>6.857284475788165</v>
+        <v>8.066263916150127</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.162443465742849</v>
+        <v>23.02048353999434</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.272144557890755</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14.20987349807328</v>
       </c>
       <c r="J4">
-        <v>4.60017515571476</v>
+        <v>5.047114239788933</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.351725688427873</v>
+        <v>8.147734037583843</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.55494774010702</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>37.2349424226735</v>
+        <v>15.12770562120006</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.25402941671574</v>
+        <v>21.04029358141356</v>
       </c>
       <c r="C5">
-        <v>13.96127904607031</v>
+        <v>12.07972657441605</v>
       </c>
       <c r="D5">
-        <v>7.896573477759586</v>
+        <v>8.563790489549691</v>
       </c>
       <c r="E5">
-        <v>6.868915171843287</v>
+        <v>8.086369325598444</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.166297906499516</v>
+        <v>22.9884423250713</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.300535393712464</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>14.30878495770075</v>
       </c>
       <c r="J5">
-        <v>4.595646804734039</v>
+        <v>5.055412809202445</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.300263594677965</v>
+        <v>8.080294156243832</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.60369948713854</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>36.96265520844235</v>
+        <v>15.1564343863455</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28.18092391938187</v>
+        <v>20.96552649358809</v>
       </c>
       <c r="C6">
-        <v>13.91183742408045</v>
+        <v>12.04961391599441</v>
       </c>
       <c r="D6">
-        <v>7.891465317151535</v>
+        <v>8.558010484686074</v>
       </c>
       <c r="E6">
-        <v>6.870878329077719</v>
+        <v>8.089771839034521</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.166940730999686</v>
+        <v>22.98365316176985</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.305356485664799</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>14.32538576634294</v>
       </c>
       <c r="J6">
-        <v>4.594898274475775</v>
+        <v>5.056801152276422</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.291805240889623</v>
+        <v>8.069082356344868</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.61187062499881</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>36.917822660818</v>
+        <v>15.16145331679421</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28.68716149502761</v>
+        <v>21.47910294885561</v>
       </c>
       <c r="C7">
-        <v>14.2528412877125</v>
+        <v>12.25707989341535</v>
       </c>
       <c r="D7">
-        <v>7.927377883368431</v>
+        <v>8.598546538958797</v>
       </c>
       <c r="E7">
-        <v>6.857439188733956</v>
+        <v>8.066530754951533</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.162495263643354</v>
+        <v>23.02001557586223</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.272520238121345</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>14.21119554624805</v>
       </c>
       <c r="J7">
-        <v>4.600113850690224</v>
+        <v>5.047225463399941</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.351025814737524</v>
+        <v>8.146825482409186</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.55560010529484</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>37.23124468364868</v>
+        <v>15.12807627136057</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30.88909291417226</v>
+        <v>23.61266251799682</v>
       </c>
       <c r="C8">
-        <v>15.73729774576225</v>
+        <v>13.13325045612614</v>
       </c>
       <c r="D8">
-        <v>8.097412912977889</v>
+        <v>8.787595640057395</v>
       </c>
       <c r="E8">
-        <v>6.80282614752497</v>
+        <v>7.973474727303347</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.143249745202787</v>
+        <v>23.2600843248421</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.143678564103439</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>13.7337241822738</v>
       </c>
       <c r="J8">
-        <v>4.623694151198251</v>
+        <v>5.006460844680332</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.625133956530554</v>
+        <v>8.487296272902006</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.31863992572619</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>38.67042377403993</v>
+        <v>15.01838351900051</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35.0794442680846</v>
+        <v>27.32539049602931</v>
       </c>
       <c r="C9">
-        <v>18.52651846463274</v>
+        <v>14.70260557084919</v>
       </c>
       <c r="D9">
-        <v>8.475259182818167</v>
+        <v>9.193392581684</v>
       </c>
       <c r="E9">
-        <v>6.713212394272151</v>
+        <v>7.827149181903208</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.106453893703869</v>
+        <v>24.03666454633933</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.954209603246944</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.9010380402281</v>
       </c>
       <c r="J9">
-        <v>4.672761467248687</v>
+        <v>4.93170914840122</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.21054613192083</v>
+        <v>9.140141397975073</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.89846967403425</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>41.70529950503928</v>
+        <v>14.95265600872927</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>38.0821266735113</v>
+        <v>29.77152119699679</v>
       </c>
       <c r="C10">
-        <v>20.44989531526592</v>
+        <v>15.76033856776187</v>
       </c>
       <c r="D10">
-        <v>8.783218227840601</v>
+        <v>9.511438048300727</v>
       </c>
       <c r="E10">
-        <v>6.658741892065311</v>
+        <v>7.743701521783371</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.079553080854911</v>
+        <v>24.80751544730219</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.859030561914825</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>12.36262233914974</v>
       </c>
       <c r="J10">
-        <v>4.711452666681128</v>
+        <v>4.879781397510023</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.67271963110794</v>
+        <v>9.606541412728712</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.62154768584123</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>44.08137314451903</v>
+        <v>15.00854393262887</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>39.43511139691628</v>
+        <v>30.8244251394202</v>
       </c>
       <c r="C11">
-        <v>21.30229052846042</v>
+        <v>16.22024908807777</v>
       </c>
       <c r="D11">
-        <v>8.930846197722655</v>
+        <v>9.660125496019031</v>
       </c>
       <c r="E11">
-        <v>6.636625767643343</v>
+        <v>7.711439042881651</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.06722332865735</v>
+        <v>25.2037462437847</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.826581877821985</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>12.13643798057227</v>
       </c>
       <c r="J11">
-        <v>4.729883028548318</v>
+        <v>4.856768622356878</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.89092231364478</v>
+        <v>9.81511212965181</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.50385729737977</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>45.19985398383881</v>
+        <v>15.05935441035227</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.94610023205833</v>
+        <v>31.21462855126401</v>
       </c>
       <c r="C12">
-        <v>21.62231726592032</v>
+        <v>16.39131790632197</v>
       </c>
       <c r="D12">
-        <v>8.987932874427216</v>
+        <v>9.716979425332797</v>
       </c>
       <c r="E12">
-        <v>6.628653885913477</v>
+        <v>7.70008396653612</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.062528783563818</v>
+        <v>25.36045307463657</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.815968344226995</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>12.05376993683224</v>
       </c>
       <c r="J12">
-        <v>4.737007796896988</v>
+        <v>4.848138564463509</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.97480992062029</v>
+        <v>9.893524885698104</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.46063352536196</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>45.62947584945854</v>
+        <v>15.08246610096882</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>39.83609986401977</v>
+        <v>31.13096808533772</v>
       </c>
       <c r="C13">
-        <v>21.5535076038808</v>
+        <v>16.35461295793143</v>
       </c>
       <c r="D13">
-        <v>8.975583775682573</v>
+        <v>9.7047108973122</v>
       </c>
       <c r="E13">
-        <v>6.630352489769622</v>
+        <v>7.702490441294864</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.063541193037893</v>
+        <v>25.32640572795507</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.81817783016046</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>12.07143623997944</v>
       </c>
       <c r="J13">
-        <v>4.73546640024271</v>
+        <v>4.849993502596565</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.95668502788085</v>
+        <v>9.876663308086169</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.46988001270586</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>45.53666595691826</v>
+        <v>15.0773129936422</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>39.47717436682031</v>
+        <v>30.85669735811371</v>
       </c>
       <c r="C14">
-        <v>21.32867144052005</v>
+        <v>16.23438507866398</v>
       </c>
       <c r="D14">
-        <v>8.935518386344478</v>
+        <v>9.664792043791696</v>
       </c>
       <c r="E14">
-        <v>6.63596171100654</v>
+        <v>7.710487324642955</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.066837695607618</v>
+        <v>25.21650456560226</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.825674472560966</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>12.12957523659924</v>
       </c>
       <c r="J14">
-        <v>4.730466100432682</v>
+        <v>4.856056950419026</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.89779778466009</v>
+        <v>9.821574851772217</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.50027334135828</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>45.2350728762891</v>
+        <v>15.06117700788869</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>39.2571636994097</v>
+        <v>30.68759353079209</v>
       </c>
       <c r="C15">
-        <v>21.19060985399284</v>
+        <v>16.16033896206111</v>
       </c>
       <c r="D15">
-        <v>8.911134614188107</v>
+        <v>9.640411348175078</v>
       </c>
       <c r="E15">
-        <v>6.639450663592163</v>
+        <v>7.715499215142958</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.068853171334614</v>
+        <v>25.15005731401022</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.830487873991729</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>12.16558484233515</v>
       </c>
       <c r="J15">
-        <v>4.727423101363063</v>
+        <v>4.859781876734718</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.86189559696927</v>
+        <v>9.787756169413502</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.51907013100834</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>45.05115316576023</v>
+        <v>15.05180377299825</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.99348419831799</v>
+        <v>29.70151539594853</v>
       </c>
       <c r="C16">
-        <v>20.39377488533092</v>
+        <v>15.72985150577884</v>
       </c>
       <c r="D16">
-        <v>8.773730028637926</v>
+        <v>9.5017992595932</v>
       </c>
       <c r="E16">
-        <v>6.660242454424196</v>
+        <v>7.745928201166305</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.080356002122009</v>
+        <v>24.78254799470662</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.86137908905129</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>12.37780477820544</v>
       </c>
       <c r="J16">
-        <v>4.710267026513344</v>
+        <v>4.881297325246456</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.65862874649494</v>
+        <v>9.592833885666712</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.62941793347716</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>44.00908732710672</v>
+        <v>15.00575317547247</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>37.21524120117545</v>
+        <v>29.08132771470826</v>
       </c>
       <c r="C17">
-        <v>19.89948283388415</v>
+        <v>15.46028957074095</v>
       </c>
       <c r="D17">
-        <v>8.691430805527123</v>
+        <v>9.417771812307093</v>
       </c>
       <c r="E17">
-        <v>6.673692781857303</v>
+        <v>7.766084406846528</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.087380899118734</v>
+        <v>24.56885362433789</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.883187889586166</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>12.51298647795024</v>
       </c>
       <c r="J17">
-        <v>4.699971978828342</v>
+        <v>4.894650180048153</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.53604064924193</v>
+        <v>9.472295131752437</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.69933206205732</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>43.3798614279988</v>
+        <v>14.98416354108248</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>36.76635634422129</v>
+        <v>28.71897246344965</v>
       </c>
       <c r="C18">
-        <v>19.61302166864007</v>
+        <v>15.30324488072598</v>
       </c>
       <c r="D18">
-        <v>8.644796652949163</v>
+        <v>9.369820141244828</v>
       </c>
       <c r="E18">
-        <v>6.68167829674217</v>
+        <v>7.778211372729257</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.091413582177848</v>
+        <v>24.45022710057316</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.896745702848269</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>12.5924838915044</v>
       </c>
       <c r="J18">
-        <v>4.694126781401475</v>
+        <v>4.902387954696365</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.46627160508786</v>
+        <v>9.402628414379736</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.74031356535398</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>43.02143540088631</v>
+        <v>14.97412245454253</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>36.61414289528942</v>
+        <v>28.5953136241217</v>
       </c>
       <c r="C19">
-        <v>19.51564693108262</v>
+        <v>15.2497299826628</v>
       </c>
       <c r="D19">
-        <v>8.629125057586215</v>
+        <v>9.353650419300189</v>
       </c>
       <c r="E19">
-        <v>6.684424305572325</v>
+        <v>7.782407751652358</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.092777968983403</v>
+        <v>24.41079417305603</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.901506909497947</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>12.61969191363904</v>
       </c>
       <c r="J19">
-        <v>4.692160070905246</v>
+        <v>4.905017815644396</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.44277320549664</v>
+        <v>9.378984441304913</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.75431713318426</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>42.90066017442096</v>
+        <v>14.97112409783161</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>37.29821385343188</v>
+        <v>29.14793073558551</v>
       </c>
       <c r="C20">
-        <v>19.95232111976275</v>
+        <v>15.4891921459775</v>
       </c>
       <c r="D20">
-        <v>8.700118375890657</v>
+        <v>9.426677685041827</v>
       </c>
       <c r="E20">
-        <v>6.672235041358977</v>
+        <v>7.76388321284287</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.086633981220352</v>
+        <v>24.59115738066243</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.880760554862119</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>12.49841366545915</v>
       </c>
       <c r="J20">
-        <v>4.701059838883467</v>
+        <v>4.89322281106358</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.54901300970029</v>
+        <v>9.485161860364361</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.69180902678588</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>43.44647834091175</v>
+        <v>14.9862141983308</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>39.58263132355371</v>
+        <v>30.93748743885447</v>
       </c>
       <c r="C21">
-        <v>21.394781733658</v>
+        <v>16.26978296096955</v>
       </c>
       <c r="D21">
-        <v>8.947253541103857</v>
+        <v>9.676502478916621</v>
       </c>
       <c r="E21">
-        <v>6.634303030765909</v>
+        <v>7.70811469899627</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.065870234793108</v>
+        <v>25.24860366398875</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.823426157303974</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>12.1124149267136</v>
       </c>
       <c r="J21">
-        <v>4.731930622874243</v>
+        <v>4.854273705509358</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.91505913997447</v>
+        <v>9.837771462804538</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.49130825118501</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>45.32348679352928</v>
+        <v>15.06580976251785</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>41.06974047245684</v>
+        <v>32.05752003864701</v>
       </c>
       <c r="C22">
-        <v>22.32174357758369</v>
+        <v>16.7619307856159</v>
       </c>
       <c r="D22">
-        <v>9.115731577099192</v>
+        <v>9.842967662697429</v>
       </c>
       <c r="E22">
-        <v>6.611873456105552</v>
+        <v>7.676712865755328</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.052143654018477</v>
+        <v>25.71714724750981</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.795769325375835</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>11.87769691674015</v>
       </c>
       <c r="J22">
-        <v>4.752971307122037</v>
+        <v>4.829308415669921</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.16170985440083</v>
+        <v>10.06489072835192</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.36819475850952</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>46.5861089618323</v>
+        <v>15.14048940337603</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>40.27574724118414</v>
+        <v>31.46423781528595</v>
       </c>
       <c r="C23">
-        <v>21.8282624849915</v>
+        <v>16.50091801104642</v>
       </c>
       <c r="D23">
-        <v>9.025135384878729</v>
+        <v>9.753838551218646</v>
       </c>
       <c r="E23">
-        <v>6.623620860905835</v>
+        <v>7.692996159468627</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.059488754137205</v>
+        <v>25.46349270188702</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.809593201017538</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>12.00125701216597</v>
       </c>
       <c r="J23">
-        <v>4.741652246060773</v>
+        <v>4.842589126448829</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.02934152358263</v>
+        <v>9.943992593998031</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.43311789279229</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>45.90866369852461</v>
+        <v>15.09848722500068</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>37.26070650847173</v>
+        <v>29.11783758636395</v>
       </c>
       <c r="C24">
-        <v>19.92844008659287</v>
+        <v>15.47613173651945</v>
       </c>
       <c r="D24">
-        <v>8.696188612027017</v>
+        <v>9.422650226464944</v>
       </c>
       <c r="E24">
-        <v>6.672893300065281</v>
+        <v>7.764876697310788</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.086971680677128</v>
+        <v>24.58106068809133</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.881854785501089</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>12.50499651194457</v>
       </c>
       <c r="J24">
-        <v>4.700567790119087</v>
+        <v>4.893867934209749</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.54314600690322</v>
+        <v>9.479345952695125</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.69520775105958</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>43.41635052809492</v>
+        <v>14.98527972758162</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>33.95984248380734</v>
+        <v>26.37086635217421</v>
       </c>
       <c r="C25">
-        <v>17.79544618460454</v>
+        <v>14.29452938228503</v>
       </c>
       <c r="D25">
-        <v>8.367981298597513</v>
+        <v>9.080007260884308</v>
       </c>
       <c r="E25">
-        <v>6.735516898475516</v>
+        <v>7.862662793260873</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.11634880256817</v>
+        <v>23.79223851550087</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.998153163031938</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13.11425979545981</v>
       </c>
       <c r="J25">
-        <v>4.659098858656718</v>
+        <v>4.951393223745641</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.04680529208485</v>
+        <v>8.965580609858359</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.00695237429495</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>40.86011192449129</v>
+        <v>14.95308766146462</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.15865793370584</v>
+        <v>18.71305630770718</v>
       </c>
       <c r="C2">
-        <v>13.36079391577166</v>
+        <v>9.451336989984247</v>
       </c>
       <c r="D2">
-        <v>8.841243650011059</v>
+        <v>13.50359275942293</v>
       </c>
       <c r="E2">
-        <v>7.950637709456064</v>
+        <v>13.93488704166072</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>23.34520941795819</v>
+        <v>34.7162323040215</v>
       </c>
       <c r="H2">
-        <v>9.112852773118885</v>
+        <v>15.87222554054175</v>
       </c>
       <c r="I2">
-        <v>13.61104740128801</v>
+        <v>24.35881136032112</v>
       </c>
       <c r="J2">
-        <v>4.995772807799446</v>
+        <v>8.465716674283758</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.578718271363121</v>
+        <v>12.39292078574622</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.99828374759946</v>
+        <v>24.93698879047697</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.53924980258068</v>
+        <v>18.09721428897859</v>
       </c>
       <c r="C3">
-        <v>12.68971349505049</v>
+        <v>9.136980873044592</v>
       </c>
       <c r="D3">
-        <v>8.688352221336352</v>
+        <v>13.51811972828297</v>
       </c>
       <c r="E3">
-        <v>8.019560888163792</v>
+        <v>13.98145022051006</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>23.12111458265402</v>
+        <v>34.87907222383711</v>
       </c>
       <c r="H3">
-        <v>9.206904966898733</v>
+        <v>15.93962130545373</v>
       </c>
       <c r="I3">
-        <v>13.97445196467152</v>
+        <v>24.51451632222741</v>
       </c>
       <c r="J3">
-        <v>5.027168603283192</v>
+        <v>8.4779571114834</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.312569830881882</v>
+        <v>12.36379497826929</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.06755555753489</v>
+        <v>25.05474597235135</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.48503950392136</v>
+        <v>17.70872994337077</v>
       </c>
       <c r="C4">
-        <v>12.25948642045469</v>
+        <v>8.937647344400389</v>
       </c>
       <c r="D4">
-        <v>8.599026485975358</v>
+        <v>13.52962895136157</v>
       </c>
       <c r="E4">
-        <v>8.066263916150127</v>
+        <v>14.01203978604673</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23.02048353999434</v>
+        <v>34.99132140972459</v>
       </c>
       <c r="H4">
-        <v>9.272144557890755</v>
+        <v>15.98397169866864</v>
       </c>
       <c r="I4">
-        <v>14.20987349807328</v>
+        <v>24.61559136546436</v>
       </c>
       <c r="J4">
-        <v>5.047114239788933</v>
+        <v>8.485882445163252</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.147734037583843</v>
+        <v>12.34737732359793</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.12770562120006</v>
+        <v>25.13317750405693</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.04029358141356</v>
+        <v>17.54802995317773</v>
       </c>
       <c r="C5">
-        <v>12.07972657441605</v>
+        <v>8.854923076194245</v>
       </c>
       <c r="D5">
-        <v>8.563790489549691</v>
+        <v>13.53497023772901</v>
       </c>
       <c r="E5">
-        <v>8.086369325598444</v>
+        <v>14.02500855782237</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>22.9884423250713</v>
+        <v>35.04013079196577</v>
       </c>
       <c r="H5">
-        <v>9.300535393712464</v>
+        <v>16.00279121490691</v>
       </c>
       <c r="I5">
-        <v>14.30878495770075</v>
+        <v>24.65815721629309</v>
       </c>
       <c r="J5">
-        <v>5.055412809202445</v>
+        <v>8.489215400279839</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.080294156243832</v>
+        <v>12.34105976767248</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.1564343863455</v>
+        <v>25.16667637289257</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.96552649358809</v>
+        <v>17.52120816782281</v>
       </c>
       <c r="C6">
-        <v>12.04961391599441</v>
+        <v>8.841099466840028</v>
       </c>
       <c r="D6">
-        <v>8.558010484686074</v>
+        <v>13.53589648066944</v>
       </c>
       <c r="E6">
-        <v>8.089771839034521</v>
+        <v>14.02719242284715</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>22.98365316176985</v>
+        <v>35.04842027607533</v>
       </c>
       <c r="H6">
-        <v>9.305356485664799</v>
+        <v>16.00596125361138</v>
       </c>
       <c r="I6">
-        <v>14.32538576634294</v>
+        <v>24.66530844088981</v>
       </c>
       <c r="J6">
-        <v>5.056801152276422</v>
+        <v>8.489775084055347</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.069082356344868</v>
+        <v>12.34003337473962</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.16145331679421</v>
+        <v>25.17233158370829</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.47910294885561</v>
+        <v>17.70657206454101</v>
       </c>
       <c r="C7">
-        <v>12.25707989341535</v>
+        <v>8.936537614568142</v>
       </c>
       <c r="D7">
-        <v>8.598546538958797</v>
+        <v>13.52969834932341</v>
       </c>
       <c r="E7">
-        <v>8.066530754951533</v>
+        <v>14.01221264907276</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.02001557586223</v>
+        <v>34.99196727533839</v>
       </c>
       <c r="H7">
-        <v>9.272520238121345</v>
+        <v>15.98422248353167</v>
       </c>
       <c r="I7">
-        <v>14.21119554624805</v>
+        <v>24.61615984673097</v>
       </c>
       <c r="J7">
-        <v>5.047225463399941</v>
+        <v>8.485926975827459</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.146825482409186</v>
+        <v>12.34729060812188</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.12807627136057</v>
+        <v>25.13362306147916</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.61266251799682</v>
+        <v>18.5029857563935</v>
       </c>
       <c r="C8">
-        <v>13.13325045612614</v>
+        <v>9.344311982391512</v>
       </c>
       <c r="D8">
-        <v>8.787595640057395</v>
+        <v>13.50806424370579</v>
       </c>
       <c r="E8">
-        <v>7.973474727303347</v>
+        <v>13.95052729073031</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23.2600843248421</v>
+        <v>34.7698237842658</v>
       </c>
       <c r="H8">
-        <v>9.143678564103439</v>
+        <v>15.89484721423458</v>
       </c>
       <c r="I8">
-        <v>13.7337241822738</v>
+        <v>24.41136344899028</v>
       </c>
       <c r="J8">
-        <v>5.006460844680332</v>
+        <v>8.469852337453689</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.487296272902006</v>
+        <v>12.3825765954379</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.01838351900051</v>
+        <v>24.9763174175981</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.32539049602931</v>
+        <v>19.97414764963374</v>
       </c>
       <c r="C9">
-        <v>14.70260557084919</v>
+        <v>10.09014638297749</v>
       </c>
       <c r="D9">
-        <v>9.193392581684</v>
+        <v>13.48618042059781</v>
       </c>
       <c r="E9">
-        <v>7.827149181903208</v>
+        <v>13.84540736717522</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.03666454633933</v>
+        <v>34.43225955643792</v>
       </c>
       <c r="H9">
-        <v>8.954209603246944</v>
+        <v>15.74315186932185</v>
       </c>
       <c r="I9">
-        <v>12.9010380402281</v>
+        <v>24.05312340819814</v>
       </c>
       <c r="J9">
-        <v>4.93170914840122</v>
+        <v>8.441566499650442</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.140141397975073</v>
+        <v>12.4632079352849</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.95265600872927</v>
+        <v>24.71662539855321</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.77152119699679</v>
+        <v>20.98979249411325</v>
       </c>
       <c r="C10">
-        <v>15.76033856776187</v>
+        <v>10.60099087597231</v>
       </c>
       <c r="D10">
-        <v>9.511438048300727</v>
+        <v>13.48260562714255</v>
       </c>
       <c r="E10">
-        <v>7.743701521783371</v>
+        <v>13.7778062258152</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>24.80751544730219</v>
+        <v>34.24500695040529</v>
       </c>
       <c r="H10">
-        <v>8.859030561914825</v>
+        <v>15.64608433544694</v>
       </c>
       <c r="I10">
-        <v>12.36262233914974</v>
+        <v>23.81629212780031</v>
       </c>
       <c r="J10">
-        <v>4.879781397510023</v>
+        <v>8.422738417668032</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.606541412728712</v>
+        <v>12.52914588598653</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.00854393262887</v>
+        <v>24.55578721481716</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.8244251394202</v>
+        <v>21.43592006900214</v>
       </c>
       <c r="C11">
-        <v>16.22024908807777</v>
+        <v>10.82457735567136</v>
       </c>
       <c r="D11">
-        <v>9.660125496019031</v>
+        <v>13.48368609086871</v>
       </c>
       <c r="E11">
-        <v>7.711439042881651</v>
+        <v>13.74913788290039</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.2037462437847</v>
+        <v>34.1732086574138</v>
       </c>
       <c r="H11">
-        <v>8.826581877821985</v>
+        <v>15.60505253838623</v>
       </c>
       <c r="I11">
-        <v>12.13643798057227</v>
+        <v>23.71426395061338</v>
       </c>
       <c r="J11">
-        <v>4.856768622356878</v>
+        <v>8.414593077402909</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.81511212965181</v>
+        <v>12.56053410630199</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.05935441035227</v>
+        <v>24.48916932945477</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.21462855126401</v>
+        <v>21.60244701901156</v>
       </c>
       <c r="C12">
-        <v>16.39131790632197</v>
+        <v>10.90792563095063</v>
       </c>
       <c r="D12">
-        <v>9.716979425332797</v>
+        <v>13.48448334782627</v>
       </c>
       <c r="E12">
-        <v>7.70008396653612</v>
+        <v>13.73858115237892</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.36045307463657</v>
+        <v>34.14795997673773</v>
       </c>
       <c r="H12">
-        <v>8.815968344226995</v>
+        <v>15.5899646105011</v>
       </c>
       <c r="I12">
-        <v>12.05376993683224</v>
+        <v>23.67644864430818</v>
       </c>
       <c r="J12">
-        <v>4.848138564463509</v>
+        <v>8.411568680393666</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.893524885698104</v>
+        <v>12.57261453582962</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.08246610096882</v>
+        <v>24.46488840440643</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.13096808533772</v>
+        <v>21.56669158182704</v>
       </c>
       <c r="C13">
-        <v>16.35461295793143</v>
+        <v>10.8900345401178</v>
       </c>
       <c r="D13">
-        <v>9.7047108973122</v>
+        <v>13.48429440305074</v>
       </c>
       <c r="E13">
-        <v>7.702490441294864</v>
+        <v>13.74084142413365</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.32640572795507</v>
+        <v>34.15331122721877</v>
       </c>
       <c r="H13">
-        <v>8.81817783016046</v>
+        <v>15.59319404559721</v>
       </c>
       <c r="I13">
-        <v>12.07143623997944</v>
+        <v>23.68455635483711</v>
       </c>
       <c r="J13">
-        <v>4.849993502596565</v>
+        <v>8.412217371333535</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.876663308086169</v>
+        <v>12.57000424943929</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.0773129936422</v>
+        <v>24.47007560378563</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.85669735811371</v>
+        <v>21.44966934921386</v>
       </c>
       <c r="C14">
-        <v>16.23438507866398</v>
+        <v>10.83146118888783</v>
       </c>
       <c r="D14">
-        <v>9.664792043791696</v>
+        <v>13.48374391053738</v>
       </c>
       <c r="E14">
-        <v>7.710487324642955</v>
+        <v>13.74826337657696</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.21650456560226</v>
+        <v>34.17109247334925</v>
       </c>
       <c r="H14">
-        <v>8.825674472560966</v>
+        <v>15.60380222487413</v>
       </c>
       <c r="I14">
-        <v>12.12957523659924</v>
+        <v>23.71113641827347</v>
       </c>
       <c r="J14">
-        <v>4.856056950419026</v>
+        <v>8.414343056203194</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.821574851772217</v>
+        <v>12.56152410904371</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.06117700788869</v>
+        <v>24.48715274349748</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.68759353079209</v>
+        <v>21.37767226310731</v>
       </c>
       <c r="C15">
-        <v>16.16033896206111</v>
+        <v>10.79541005633202</v>
       </c>
       <c r="D15">
-        <v>9.640411348175078</v>
+        <v>13.48345722452481</v>
       </c>
       <c r="E15">
-        <v>7.715499215142958</v>
+        <v>13.75284851226098</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.15005731401022</v>
+        <v>34.18223705207835</v>
       </c>
       <c r="H15">
-        <v>8.830487873991729</v>
+        <v>15.61035865223809</v>
       </c>
       <c r="I15">
-        <v>12.16558484233515</v>
+        <v>23.72752433061088</v>
       </c>
       <c r="J15">
-        <v>4.859781876734718</v>
+        <v>8.41565291378339</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.787756169413502</v>
+        <v>12.55635491559343</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.05180377299825</v>
+        <v>24.49773628279869</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.70151539594853</v>
+        <v>20.96030603062687</v>
       </c>
       <c r="C16">
-        <v>15.72985150577884</v>
+        <v>10.58619716179853</v>
       </c>
       <c r="D16">
-        <v>9.5017992595932</v>
+        <v>13.48258939185803</v>
       </c>
       <c r="E16">
-        <v>7.745928201166305</v>
+        <v>13.7797216747067</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>24.78254799470662</v>
+        <v>34.24996977334596</v>
       </c>
       <c r="H16">
-        <v>8.86137908905129</v>
+        <v>15.64882878730523</v>
       </c>
       <c r="I16">
-        <v>12.37780477820544</v>
+        <v>23.82307474118238</v>
       </c>
       <c r="J16">
-        <v>4.881297325246456</v>
+        <v>8.423279155361509</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.592833885666712</v>
+        <v>12.52712211934693</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.00575317547247</v>
+        <v>24.56027297641623</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.08132771470826</v>
+        <v>20.70009972624019</v>
       </c>
       <c r="C17">
-        <v>15.46028957074095</v>
+        <v>10.45555772810021</v>
       </c>
       <c r="D17">
-        <v>9.417771812307093</v>
+        <v>13.48274952989629</v>
       </c>
       <c r="E17">
-        <v>7.766084406846528</v>
+        <v>13.79674097808581</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>24.56885362433789</v>
+        <v>34.29496060966462</v>
       </c>
       <c r="H17">
-        <v>8.883187889586166</v>
+        <v>15.67322969811502</v>
       </c>
       <c r="I17">
-        <v>12.51298647795024</v>
+        <v>23.88315349788384</v>
       </c>
       <c r="J17">
-        <v>4.894650180048153</v>
+        <v>8.428064890793923</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.472295131752437</v>
+        <v>12.50954133979614</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.98416354108248</v>
+        <v>24.60031736044599</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.71897246344965</v>
+        <v>20.54894643285378</v>
       </c>
       <c r="C18">
-        <v>15.30324488072598</v>
+        <v>10.3795919190613</v>
       </c>
       <c r="D18">
-        <v>9.369820141244828</v>
+        <v>13.48309648074625</v>
       </c>
       <c r="E18">
-        <v>7.778211372729257</v>
+        <v>13.80672618110142</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>24.45022710057316</v>
+        <v>34.32209704413334</v>
       </c>
       <c r="H18">
-        <v>8.896745702848269</v>
+        <v>15.68755853232831</v>
       </c>
       <c r="I18">
-        <v>12.5924838915044</v>
+        <v>23.91824643707002</v>
       </c>
       <c r="J18">
-        <v>4.902387954696365</v>
+        <v>8.430857035042226</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.402628414379736</v>
+        <v>12.4995607953068</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.97412245454253</v>
+        <v>24.62396592988464</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.5953136241217</v>
+        <v>20.49751679794964</v>
       </c>
       <c r="C19">
-        <v>15.2497299826628</v>
+        <v>10.35373117615679</v>
       </c>
       <c r="D19">
-        <v>9.353650419300189</v>
+        <v>13.48325775193381</v>
       </c>
       <c r="E19">
-        <v>7.782407751652358</v>
+        <v>13.81014069726635</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24.41079417305603</v>
+        <v>34.33150071426775</v>
       </c>
       <c r="H19">
-        <v>8.901506909497947</v>
+        <v>15.69246051945643</v>
       </c>
       <c r="I19">
-        <v>12.61969191363904</v>
+        <v>23.9302205801547</v>
       </c>
       <c r="J19">
-        <v>4.905017815644396</v>
+        <v>8.431809202510564</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.378984441304913</v>
+        <v>12.49620430751721</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.97112409783161</v>
+        <v>24.63207861647926</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.14793073558551</v>
+        <v>20.72795425291269</v>
       </c>
       <c r="C20">
-        <v>15.4891921459775</v>
+        <v>10.46955036169542</v>
       </c>
       <c r="D20">
-        <v>9.426677685041827</v>
+        <v>13.48270611484977</v>
       </c>
       <c r="E20">
-        <v>7.76388321284287</v>
+        <v>13.79490894556126</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>24.59115738066243</v>
+        <v>34.29004085458027</v>
       </c>
       <c r="H20">
-        <v>8.880760554862119</v>
+        <v>15.6706017395274</v>
       </c>
       <c r="I20">
-        <v>12.49841366545915</v>
+        <v>23.87670241234085</v>
       </c>
       <c r="J20">
-        <v>4.89322281106358</v>
+        <v>8.427551353373236</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.485161860364361</v>
+        <v>12.51139928060583</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.9862141983308</v>
+        <v>24.59599077297704</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.93748743885447</v>
+        <v>21.48410800553763</v>
       </c>
       <c r="C21">
-        <v>16.26978296096955</v>
+        <v>10.8487017966665</v>
       </c>
       <c r="D21">
-        <v>9.676502478916621</v>
+        <v>13.48389508030564</v>
       </c>
       <c r="E21">
-        <v>7.70811469899627</v>
+        <v>13.74607524728374</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.24860366398875</v>
+        <v>34.1658169286328</v>
       </c>
       <c r="H21">
-        <v>8.823426157303974</v>
+        <v>15.6006741298533</v>
       </c>
       <c r="I21">
-        <v>12.1124149267136</v>
+        <v>23.70330694082908</v>
       </c>
       <c r="J21">
-        <v>4.854273705509358</v>
+        <v>8.413717063046885</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.837771462804538</v>
+        <v>12.5640097040162</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.06580976251785</v>
+        <v>24.48211107093419</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.05752003864701</v>
+        <v>21.96419165342771</v>
       </c>
       <c r="C22">
-        <v>16.7619307856159</v>
+        <v>11.08879025058265</v>
       </c>
       <c r="D22">
-        <v>9.842967662697429</v>
+        <v>13.48693365951168</v>
       </c>
       <c r="E22">
-        <v>7.676712865755328</v>
+        <v>13.71590430651731</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>25.71714724750981</v>
+        <v>34.09594232616791</v>
       </c>
       <c r="H22">
-        <v>8.795769325375835</v>
+        <v>15.55759518140655</v>
       </c>
       <c r="I22">
-        <v>11.87769691674015</v>
+        <v>23.59476575780671</v>
       </c>
       <c r="J22">
-        <v>4.829308415669921</v>
+        <v>8.405025541062022</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.06489072835192</v>
+        <v>12.5995238457428</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.14048940337603</v>
+        <v>24.41319900734852</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.46423781528595</v>
+        <v>21.70929063017337</v>
       </c>
       <c r="C23">
-        <v>16.50091801104642</v>
+        <v>10.96137195899647</v>
       </c>
       <c r="D23">
-        <v>9.753838551218646</v>
+        <v>13.48510540711866</v>
       </c>
       <c r="E23">
-        <v>7.692996159468627</v>
+        <v>13.73184755931717</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25.46349270188702</v>
+        <v>34.13219579189961</v>
       </c>
       <c r="H23">
-        <v>8.809593201017538</v>
+        <v>15.58034704020196</v>
       </c>
       <c r="I23">
-        <v>12.00125701216597</v>
+        <v>23.65225864045094</v>
       </c>
       <c r="J23">
-        <v>4.842589126448829</v>
+        <v>8.409632437490796</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.943992593998031</v>
+        <v>12.58046786433404</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.09848722500068</v>
+        <v>24.44947267848486</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.11783758636395</v>
+        <v>20.71536606206584</v>
       </c>
       <c r="C24">
-        <v>15.47613173651945</v>
+        <v>10.46322696495568</v>
       </c>
       <c r="D24">
-        <v>9.422650226464944</v>
+        <v>13.48272494877727</v>
       </c>
       <c r="E24">
-        <v>7.764876697310788</v>
+        <v>13.79573658265826</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>24.58106068809133</v>
+        <v>34.292261119141</v>
       </c>
       <c r="H24">
-        <v>8.881854785501089</v>
+        <v>15.67178890382326</v>
       </c>
       <c r="I24">
-        <v>12.50499651194457</v>
+        <v>23.87961722593325</v>
       </c>
       <c r="J24">
-        <v>4.893867934209749</v>
+        <v>8.427783396650568</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.479345952695125</v>
+        <v>12.510558909909</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.98527972758162</v>
+        <v>24.59794487189214</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.37086635217421</v>
+        <v>19.58696046818442</v>
       </c>
       <c r="C25">
-        <v>14.29452938228503</v>
+        <v>9.894617150965455</v>
       </c>
       <c r="D25">
-        <v>9.080007260884308</v>
+        <v>13.48990266810024</v>
       </c>
       <c r="E25">
-        <v>7.862662793260873</v>
+        <v>13.87215182100711</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.79223851550087</v>
+        <v>34.51297836111939</v>
       </c>
       <c r="H25">
-        <v>8.998153163031938</v>
+        <v>15.78166480533849</v>
       </c>
       <c r="I25">
-        <v>13.11425979545981</v>
+        <v>24.14540177277642</v>
       </c>
       <c r="J25">
-        <v>4.951393223745641</v>
+        <v>8.448874107748797</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.965580609858359</v>
+        <v>12.4401979948655</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.95308766146462</v>
+        <v>24.78163382156595</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.71305630770718</v>
+        <v>24.15865793370584</v>
       </c>
       <c r="C2">
-        <v>9.451336989984247</v>
+        <v>13.36079391577162</v>
       </c>
       <c r="D2">
-        <v>13.50359275942293</v>
+        <v>8.841243650011132</v>
       </c>
       <c r="E2">
-        <v>13.93488704166072</v>
+        <v>7.950637709456126</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>34.7162323040215</v>
+        <v>23.34520941795845</v>
       </c>
       <c r="H2">
-        <v>15.87222554054175</v>
+        <v>9.112852773119011</v>
       </c>
       <c r="I2">
-        <v>24.35881136032112</v>
+        <v>13.61104740128824</v>
       </c>
       <c r="J2">
-        <v>8.465716674283758</v>
+        <v>4.995772807799413</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.39292078574622</v>
+        <v>8.578718271363197</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.93698879047697</v>
+        <v>14.99828374759963</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.09721428897859</v>
+        <v>22.53924980258071</v>
       </c>
       <c r="C3">
-        <v>9.136980873044592</v>
+        <v>12.68971349505038</v>
       </c>
       <c r="D3">
-        <v>13.51811972828297</v>
+        <v>8.688352221336318</v>
       </c>
       <c r="E3">
-        <v>13.98145022051006</v>
+        <v>8.019560888163852</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.87907222383711</v>
+        <v>23.12111458265412</v>
       </c>
       <c r="H3">
-        <v>15.93962130545373</v>
+        <v>9.206904966898684</v>
       </c>
       <c r="I3">
-        <v>24.51451632222741</v>
+        <v>13.97445196467145</v>
       </c>
       <c r="J3">
-        <v>8.4779571114834</v>
+        <v>5.027168603283326</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.36379497826929</v>
+        <v>8.312569830881948</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.05474597235135</v>
+        <v>15.06755555753487</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.70872994337077</v>
+        <v>21.48503950392134</v>
       </c>
       <c r="C4">
-        <v>8.937647344400389</v>
+        <v>12.25948642045461</v>
       </c>
       <c r="D4">
-        <v>13.52962895136157</v>
+        <v>8.599026485975264</v>
       </c>
       <c r="E4">
-        <v>14.01203978604673</v>
+        <v>8.066263916150069</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>34.99132140972459</v>
+        <v>23.02048353999436</v>
       </c>
       <c r="H4">
-        <v>15.98397169866864</v>
+        <v>9.272144557890813</v>
       </c>
       <c r="I4">
-        <v>24.61559136546436</v>
+        <v>14.20987349807328</v>
       </c>
       <c r="J4">
-        <v>8.485882445163252</v>
+        <v>5.047114239788936</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.34737732359793</v>
+        <v>8.147734037583836</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.13317750405693</v>
+        <v>15.12770562120009</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.54802995317773</v>
+        <v>21.04029358141361</v>
       </c>
       <c r="C5">
-        <v>8.854923076194245</v>
+        <v>12.07972657441594</v>
       </c>
       <c r="D5">
-        <v>13.53497023772901</v>
+        <v>8.563790489549632</v>
       </c>
       <c r="E5">
-        <v>14.02500855782237</v>
+        <v>8.086369325598387</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>35.04013079196577</v>
+        <v>22.98844232507125</v>
       </c>
       <c r="H5">
-        <v>16.00279121490691</v>
+        <v>9.300535393712471</v>
       </c>
       <c r="I5">
-        <v>24.65815721629309</v>
+        <v>14.30878495770073</v>
       </c>
       <c r="J5">
-        <v>8.489215400279839</v>
+        <v>5.055412809202443</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.34105976767248</v>
+        <v>8.080294156243813</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.16667637289257</v>
+        <v>15.15643438634546</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.52120816782281</v>
+        <v>20.96552649358805</v>
       </c>
       <c r="C6">
-        <v>8.841099466840028</v>
+        <v>12.04961391599454</v>
       </c>
       <c r="D6">
-        <v>13.53589648066944</v>
+        <v>8.55801048468609</v>
       </c>
       <c r="E6">
-        <v>14.02719242284715</v>
+        <v>8.089771839034574</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>35.04842027607533</v>
+        <v>22.98365316176977</v>
       </c>
       <c r="H6">
-        <v>16.00596125361138</v>
+        <v>9.305356485664785</v>
       </c>
       <c r="I6">
-        <v>24.66530844088981</v>
+        <v>14.32538576634299</v>
       </c>
       <c r="J6">
-        <v>8.489775084055347</v>
+        <v>5.056801152276388</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.34003337473962</v>
+        <v>8.069082356344834</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.17233158370829</v>
+        <v>15.16145331679422</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.70657206454101</v>
+        <v>21.47910294885563</v>
       </c>
       <c r="C7">
-        <v>8.936537614568142</v>
+        <v>12.25707989341509</v>
       </c>
       <c r="D7">
-        <v>13.52969834932341</v>
+        <v>8.598546538958788</v>
       </c>
       <c r="E7">
-        <v>14.01221264907276</v>
+        <v>8.066530754951415</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>34.99196727533839</v>
+        <v>23.02001557586224</v>
       </c>
       <c r="H7">
-        <v>15.98422248353167</v>
+        <v>9.27252023812135</v>
       </c>
       <c r="I7">
-        <v>24.61615984673097</v>
+        <v>14.21119554624796</v>
       </c>
       <c r="J7">
-        <v>8.485926975827459</v>
+        <v>5.047225463399807</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.34729060812188</v>
+        <v>8.146825482409174</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.13362306147916</v>
+        <v>15.12807627136057</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.5029857563935</v>
+        <v>23.61266251799685</v>
       </c>
       <c r="C8">
-        <v>9.344311982391512</v>
+        <v>13.13325045612616</v>
       </c>
       <c r="D8">
-        <v>13.50806424370579</v>
+        <v>8.787595640057395</v>
       </c>
       <c r="E8">
-        <v>13.95052729073031</v>
+        <v>7.973474727303416</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.7698237842658</v>
+        <v>23.26008432484233</v>
       </c>
       <c r="H8">
-        <v>15.89484721423458</v>
+        <v>9.143678564103391</v>
       </c>
       <c r="I8">
-        <v>24.41136344899028</v>
+        <v>13.73372418227394</v>
       </c>
       <c r="J8">
-        <v>8.469852337453689</v>
+        <v>5.006460844680364</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.3825765954379</v>
+        <v>8.48729627290194</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.9763174175981</v>
+        <v>15.01838351900056</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.97414764963374</v>
+        <v>27.32539049602932</v>
       </c>
       <c r="C9">
-        <v>10.09014638297749</v>
+        <v>14.70260557084927</v>
       </c>
       <c r="D9">
-        <v>13.48618042059781</v>
+        <v>9.193392581684</v>
       </c>
       <c r="E9">
-        <v>13.84540736717522</v>
+        <v>7.827149181903096</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>34.43225955643792</v>
+        <v>24.03666454633931</v>
       </c>
       <c r="H9">
-        <v>15.74315186932185</v>
+        <v>8.95420960324684</v>
       </c>
       <c r="I9">
-        <v>24.05312340819814</v>
+        <v>12.901038040228</v>
       </c>
       <c r="J9">
-        <v>8.441566499650442</v>
+        <v>4.931709148401151</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.4632079352849</v>
+        <v>9.140141397975038</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.71662539855321</v>
+        <v>14.95265600872919</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.98979249411325</v>
+        <v>29.77152119699681</v>
       </c>
       <c r="C10">
-        <v>10.60099087597231</v>
+        <v>15.76033856776163</v>
       </c>
       <c r="D10">
-        <v>13.48260562714255</v>
+        <v>9.511438048300755</v>
       </c>
       <c r="E10">
-        <v>13.7778062258152</v>
+        <v>7.743701521783382</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>34.24500695040529</v>
+        <v>24.80751544730223</v>
       </c>
       <c r="H10">
-        <v>15.64608433544694</v>
+        <v>8.859030561914937</v>
       </c>
       <c r="I10">
-        <v>23.81629212780031</v>
+        <v>12.36262233914988</v>
       </c>
       <c r="J10">
-        <v>8.422738417668032</v>
+        <v>4.879781397510023</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.52914588598653</v>
+        <v>9.606541412728733</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.55578721481716</v>
+        <v>15.00854393262898</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.43592006900214</v>
+        <v>30.82442513942017</v>
       </c>
       <c r="C11">
-        <v>10.82457735567136</v>
+        <v>16.22024908807782</v>
       </c>
       <c r="D11">
-        <v>13.48368609086871</v>
+        <v>9.660125496019061</v>
       </c>
       <c r="E11">
-        <v>13.74913788290039</v>
+        <v>7.711439042881661</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>34.1732086574138</v>
+        <v>25.20374624378488</v>
       </c>
       <c r="H11">
-        <v>15.60505253838623</v>
+        <v>8.826581877822006</v>
       </c>
       <c r="I11">
-        <v>23.71426395061338</v>
+        <v>12.13643798057242</v>
       </c>
       <c r="J11">
-        <v>8.414593077402909</v>
+        <v>4.856768622356809</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.56053410630199</v>
+        <v>9.815112129651805</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.48916932945477</v>
+        <v>15.05935441035239</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.60244701901156</v>
+        <v>31.21462855126402</v>
       </c>
       <c r="C12">
-        <v>10.90792563095063</v>
+        <v>16.39131790632185</v>
       </c>
       <c r="D12">
-        <v>13.48448334782627</v>
+        <v>9.716979425332745</v>
       </c>
       <c r="E12">
-        <v>13.73858115237892</v>
+        <v>7.700083966536086</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>34.14795997673773</v>
+        <v>25.36045307463655</v>
       </c>
       <c r="H12">
-        <v>15.5899646105011</v>
+        <v>8.815968344227009</v>
       </c>
       <c r="I12">
-        <v>23.67644864430818</v>
+        <v>12.05376993683217</v>
       </c>
       <c r="J12">
-        <v>8.411568680393666</v>
+        <v>4.848138564463442</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.57261453582962</v>
+        <v>9.893524885698074</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.46488840440643</v>
+        <v>15.08246610096881</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.56669158182704</v>
+        <v>31.13096808533771</v>
       </c>
       <c r="C13">
-        <v>10.8900345401178</v>
+        <v>16.35461295793144</v>
       </c>
       <c r="D13">
-        <v>13.48429440305074</v>
+        <v>9.70471089731207</v>
       </c>
       <c r="E13">
-        <v>13.74084142413365</v>
+        <v>7.702490441294817</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>34.15331122721877</v>
+        <v>25.3264057279551</v>
       </c>
       <c r="H13">
-        <v>15.59319404559721</v>
+        <v>8.818177830160479</v>
       </c>
       <c r="I13">
-        <v>23.68455635483711</v>
+        <v>12.07143623997946</v>
       </c>
       <c r="J13">
-        <v>8.412217371333535</v>
+        <v>4.849993502596598</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.57000424943929</v>
+        <v>9.876663308086133</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.47007560378563</v>
+        <v>15.07731299364221</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.44966934921386</v>
+        <v>30.85669735811368</v>
       </c>
       <c r="C14">
-        <v>10.83146118888783</v>
+        <v>16.23438507866401</v>
       </c>
       <c r="D14">
-        <v>13.48374391053738</v>
+        <v>9.66479204379163</v>
       </c>
       <c r="E14">
-        <v>13.74826337657696</v>
+        <v>7.710487324642967</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>34.17109247334925</v>
+        <v>25.21650456560247</v>
       </c>
       <c r="H14">
-        <v>15.60380222487413</v>
+        <v>8.825674472560982</v>
       </c>
       <c r="I14">
-        <v>23.71113641827347</v>
+        <v>12.12957523659933</v>
       </c>
       <c r="J14">
-        <v>8.414343056203194</v>
+        <v>4.856056950419026</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.56152410904371</v>
+        <v>9.821574851772201</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.48715274349748</v>
+        <v>15.06117700788877</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.37767226310731</v>
+        <v>30.68759353079206</v>
       </c>
       <c r="C15">
-        <v>10.79541005633202</v>
+        <v>16.16033896206115</v>
       </c>
       <c r="D15">
-        <v>13.48345722452481</v>
+        <v>9.640411348175135</v>
       </c>
       <c r="E15">
-        <v>13.75284851226098</v>
+        <v>7.715499215143032</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>34.18223705207835</v>
+        <v>25.15005731401042</v>
       </c>
       <c r="H15">
-        <v>15.61035865223809</v>
+        <v>8.830487873991705</v>
       </c>
       <c r="I15">
-        <v>23.72752433061088</v>
+        <v>12.16558484233526</v>
       </c>
       <c r="J15">
-        <v>8.41565291378339</v>
+        <v>4.859781876734785</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.55635491559343</v>
+        <v>9.787756169413528</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.49773628279869</v>
+        <v>15.05180377299833</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.96030603062687</v>
+        <v>29.70151539594855</v>
       </c>
       <c r="C16">
-        <v>10.58619716179853</v>
+        <v>15.72985150577883</v>
       </c>
       <c r="D16">
-        <v>13.48258939185803</v>
+        <v>9.501799259593099</v>
       </c>
       <c r="E16">
-        <v>13.7797216747067</v>
+        <v>7.745928201166246</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>34.24996977334596</v>
+        <v>24.78254799470645</v>
       </c>
       <c r="H16">
-        <v>15.64882878730523</v>
+        <v>8.86137908905118</v>
       </c>
       <c r="I16">
-        <v>23.82307474118238</v>
+        <v>12.37780477820529</v>
       </c>
       <c r="J16">
-        <v>8.423279155361509</v>
+        <v>4.88129732524649</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.52712211934693</v>
+        <v>9.59283388566668</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.56027297641623</v>
+        <v>15.00575317547237</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.70009972624019</v>
+        <v>29.0813277147083</v>
       </c>
       <c r="C17">
-        <v>10.45555772810021</v>
+        <v>15.46028957074083</v>
       </c>
       <c r="D17">
-        <v>13.48274952989629</v>
+        <v>9.417771812307201</v>
       </c>
       <c r="E17">
-        <v>13.79674097808581</v>
+        <v>7.766084406846597</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>34.29496060966462</v>
+        <v>24.56885362433796</v>
       </c>
       <c r="H17">
-        <v>15.67322969811502</v>
+        <v>8.883187889586186</v>
       </c>
       <c r="I17">
-        <v>23.88315349788384</v>
+        <v>12.51298647795025</v>
       </c>
       <c r="J17">
-        <v>8.428064890793923</v>
+        <v>4.894650180048118</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.50954133979614</v>
+        <v>9.472295131752471</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.60031736044599</v>
+        <v>14.9841635410825</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.54894643285378</v>
+        <v>28.71897246344963</v>
       </c>
       <c r="C18">
-        <v>10.3795919190613</v>
+        <v>15.303244880726</v>
       </c>
       <c r="D18">
-        <v>13.48309648074625</v>
+        <v>9.369820141244894</v>
       </c>
       <c r="E18">
-        <v>13.80672618110142</v>
+        <v>7.778211372729259</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>34.32209704413334</v>
+        <v>24.4502271005731</v>
       </c>
       <c r="H18">
-        <v>15.68755853232831</v>
+        <v>8.896745702848213</v>
       </c>
       <c r="I18">
-        <v>23.91824643707002</v>
+        <v>12.5924838915043</v>
       </c>
       <c r="J18">
-        <v>8.430857035042226</v>
+        <v>4.902387954696332</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.4995607953068</v>
+        <v>9.402628414379748</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.62396592988464</v>
+        <v>14.97412245454244</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.49751679794964</v>
+        <v>28.59531362412174</v>
       </c>
       <c r="C19">
-        <v>10.35373117615679</v>
+        <v>15.24972998266272</v>
       </c>
       <c r="D19">
-        <v>13.48325775193381</v>
+        <v>9.353650419300106</v>
       </c>
       <c r="E19">
-        <v>13.81014069726635</v>
+        <v>7.782407751652301</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>34.33150071426775</v>
+        <v>24.41079417305605</v>
       </c>
       <c r="H19">
-        <v>15.69246051945643</v>
+        <v>8.901506909497838</v>
       </c>
       <c r="I19">
-        <v>23.9302205801547</v>
+        <v>12.61969191363895</v>
       </c>
       <c r="J19">
-        <v>8.431809202510564</v>
+        <v>4.905017815644396</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.49620430751721</v>
+        <v>9.37898444130489</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.63207861647926</v>
+        <v>14.97112409783153</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.72795425291269</v>
+        <v>29.14793073558549</v>
       </c>
       <c r="C20">
-        <v>10.46955036169542</v>
+        <v>15.48919214597733</v>
       </c>
       <c r="D20">
-        <v>13.48270611484977</v>
+        <v>9.426677685041804</v>
       </c>
       <c r="E20">
-        <v>13.79490894556126</v>
+        <v>7.763883212842922</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>34.29004085458027</v>
+        <v>24.59115738066269</v>
       </c>
       <c r="H20">
-        <v>15.6706017395274</v>
+        <v>8.880760554862208</v>
       </c>
       <c r="I20">
-        <v>23.87670241234085</v>
+        <v>12.49841366545944</v>
       </c>
       <c r="J20">
-        <v>8.427551353373236</v>
+        <v>4.893222811063646</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.51139928060583</v>
+        <v>9.485161860364396</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.59599077297704</v>
+        <v>14.98621419833101</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.48410800553763</v>
+        <v>30.93748743885448</v>
       </c>
       <c r="C21">
-        <v>10.8487017966665</v>
+        <v>16.26978296096953</v>
       </c>
       <c r="D21">
-        <v>13.48389508030564</v>
+        <v>9.676502478916621</v>
       </c>
       <c r="E21">
-        <v>13.74607524728374</v>
+        <v>7.70811469899627</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>34.1658169286328</v>
+        <v>25.24860366398886</v>
       </c>
       <c r="H21">
-        <v>15.6006741298533</v>
+        <v>8.823426157303857</v>
       </c>
       <c r="I21">
-        <v>23.70330694082908</v>
+        <v>12.1124149267136</v>
       </c>
       <c r="J21">
-        <v>8.413717063046885</v>
+        <v>4.854273705509358</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.5640097040162</v>
+        <v>9.837771462804538</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.48211107093419</v>
+        <v>15.06580976251785</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.96419165342771</v>
+        <v>32.05752003864696</v>
       </c>
       <c r="C22">
-        <v>11.08879025058265</v>
+        <v>16.76193078561594</v>
       </c>
       <c r="D22">
-        <v>13.48693365951168</v>
+        <v>9.842967662697323</v>
       </c>
       <c r="E22">
-        <v>13.71590430651731</v>
+        <v>7.676712865755333</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>34.09594232616791</v>
+        <v>25.71714724750992</v>
       </c>
       <c r="H22">
-        <v>15.55759518140655</v>
+        <v>8.79576932537589</v>
       </c>
       <c r="I22">
-        <v>23.59476575780671</v>
+        <v>11.87769691674027</v>
       </c>
       <c r="J22">
-        <v>8.405025541062022</v>
+        <v>4.829308415669956</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.5995238457428</v>
+        <v>10.06489072835188</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.41319900734852</v>
+        <v>15.14048940337614</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.70929063017337</v>
+        <v>31.46423781528597</v>
       </c>
       <c r="C23">
-        <v>10.96137195899647</v>
+        <v>16.50091801104642</v>
       </c>
       <c r="D23">
-        <v>13.48510540711866</v>
+        <v>9.753838551218621</v>
       </c>
       <c r="E23">
-        <v>13.73184755931717</v>
+        <v>7.692996159468627</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>34.13219579189961</v>
+        <v>25.46349270188694</v>
       </c>
       <c r="H23">
-        <v>15.58034704020196</v>
+        <v>8.809593201017501</v>
       </c>
       <c r="I23">
-        <v>23.65225864045094</v>
+        <v>12.00125701216582</v>
       </c>
       <c r="J23">
-        <v>8.409632437490796</v>
+        <v>4.842589126448895</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.58046786433404</v>
+        <v>9.943992593998018</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.44947267848486</v>
+        <v>15.09848722500057</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.71536606206584</v>
+        <v>29.11783758636398</v>
       </c>
       <c r="C24">
-        <v>10.46322696495568</v>
+        <v>15.47613173651944</v>
       </c>
       <c r="D24">
-        <v>13.48272494877727</v>
+        <v>9.422650226464917</v>
       </c>
       <c r="E24">
-        <v>13.79573658265826</v>
+        <v>7.764876697310799</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>34.292261119141</v>
+        <v>24.58106068809127</v>
       </c>
       <c r="H24">
-        <v>15.67178890382326</v>
+        <v>8.881854785501005</v>
       </c>
       <c r="I24">
-        <v>23.87961722593325</v>
+        <v>12.50499651194441</v>
       </c>
       <c r="J24">
-        <v>8.427783396650568</v>
+        <v>4.893867934209779</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.510558909909</v>
+        <v>9.479345952695093</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.59794487189214</v>
+        <v>14.98527972758152</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.58696046818442</v>
+        <v>26.37086635217424</v>
       </c>
       <c r="C25">
-        <v>9.894617150965455</v>
+        <v>14.29452938228506</v>
       </c>
       <c r="D25">
-        <v>13.48990266810024</v>
+        <v>9.080007260884198</v>
       </c>
       <c r="E25">
-        <v>13.87215182100711</v>
+        <v>7.862662793260873</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>34.51297836111939</v>
+        <v>23.79223851550096</v>
       </c>
       <c r="H25">
-        <v>15.78166480533849</v>
+        <v>8.998153163031947</v>
       </c>
       <c r="I25">
-        <v>24.14540177277642</v>
+        <v>13.11425979545985</v>
       </c>
       <c r="J25">
-        <v>8.448874107748797</v>
+        <v>4.951393223745677</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.4401979948655</v>
+        <v>8.965580609858357</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.78163382156595</v>
+        <v>14.95308766146468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.15865793370584</v>
+        <v>20.65623374074384</v>
       </c>
       <c r="C2">
-        <v>13.36079391577162</v>
+        <v>11.76789681656694</v>
       </c>
       <c r="D2">
-        <v>8.841243650011132</v>
+        <v>9.316559223749286</v>
       </c>
       <c r="E2">
-        <v>7.950637709456126</v>
+        <v>8.849545950841723</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>23.34520941795845</v>
+        <v>27.29661299205682</v>
       </c>
       <c r="H2">
-        <v>9.112852773119011</v>
+        <v>2.253461038448652</v>
       </c>
       <c r="I2">
-        <v>13.61104740128824</v>
+        <v>2.837456811817484</v>
       </c>
       <c r="J2">
-        <v>4.995772807799413</v>
+        <v>9.948732046838742</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.57241643380909</v>
       </c>
       <c r="L2">
-        <v>8.578718271363197</v>
+        <v>5.371570401658291</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.499436944479022</v>
       </c>
       <c r="O2">
-        <v>14.99828374759963</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.71431743147144</v>
+      </c>
+      <c r="Q2">
+        <v>16.87219013078134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.53924980258071</v>
+        <v>19.34780041836152</v>
       </c>
       <c r="C3">
-        <v>12.68971349505038</v>
+        <v>11.20277351381822</v>
       </c>
       <c r="D3">
-        <v>8.688352221336318</v>
+        <v>9.087815608764227</v>
       </c>
       <c r="E3">
-        <v>8.019560888163852</v>
+        <v>8.73791214046306</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>23.12111458265412</v>
+        <v>26.57058566832703</v>
       </c>
       <c r="H3">
-        <v>9.206904966898684</v>
+        <v>2.466601460845203</v>
       </c>
       <c r="I3">
-        <v>13.97445196467145</v>
+        <v>2.992893277706921</v>
       </c>
       <c r="J3">
-        <v>5.027168603283326</v>
+        <v>9.904359836194638</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.59220114729604</v>
       </c>
       <c r="L3">
-        <v>8.312569830881948</v>
+        <v>5.313971433168106</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.217477938808642</v>
       </c>
       <c r="O3">
-        <v>15.06755555753487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.78132384379379</v>
+      </c>
+      <c r="Q3">
+        <v>16.65964930516803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.48503950392134</v>
+        <v>18.49576290943723</v>
       </c>
       <c r="C4">
-        <v>12.25948642045461</v>
+        <v>10.84214571055386</v>
       </c>
       <c r="D4">
-        <v>8.599026485975264</v>
+        <v>8.946485702500944</v>
       </c>
       <c r="E4">
-        <v>8.066263916150069</v>
+        <v>8.667989258448801</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23.02048353999436</v>
+        <v>26.12595408256183</v>
       </c>
       <c r="H4">
-        <v>9.272144557890813</v>
+        <v>2.602370117057616</v>
       </c>
       <c r="I4">
-        <v>14.20987349807328</v>
+        <v>3.092670926709677</v>
       </c>
       <c r="J4">
-        <v>5.047114239788936</v>
+        <v>9.880073621417086</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.60886252336297</v>
       </c>
       <c r="L4">
-        <v>8.147734037583836</v>
+        <v>5.277296037868354</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.040293783451148</v>
       </c>
       <c r="O4">
-        <v>15.12770562120009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.8250457737319</v>
+      </c>
+      <c r="Q4">
+        <v>16.53386812519288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.04029358141361</v>
+        <v>18.13141014732565</v>
       </c>
       <c r="C5">
-        <v>12.07972657441594</v>
+        <v>10.69840926719665</v>
       </c>
       <c r="D5">
-        <v>8.563790489549632</v>
+        <v>8.88790655641958</v>
       </c>
       <c r="E5">
-        <v>8.086369325598387</v>
+        <v>8.638092916464126</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>22.98844232507125</v>
+        <v>25.93399615919943</v>
       </c>
       <c r="H5">
-        <v>9.300535393712471</v>
+        <v>2.65925936567792</v>
       </c>
       <c r="I5">
-        <v>14.30878495770073</v>
+        <v>3.137237707864575</v>
       </c>
       <c r="J5">
-        <v>5.055412809202443</v>
+        <v>9.869013663010453</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.61225182566485</v>
       </c>
       <c r="L5">
-        <v>8.080294156243813</v>
+        <v>5.261878642830617</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.968218934085631</v>
       </c>
       <c r="O5">
-        <v>15.15643438634546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.84425156082177</v>
+      </c>
+      <c r="Q5">
+        <v>16.47908444249965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.96552649358805</v>
+        <v>18.06411213127221</v>
       </c>
       <c r="C6">
-        <v>12.04961391599454</v>
+        <v>10.68237856968884</v>
       </c>
       <c r="D6">
-        <v>8.55801048468609</v>
+        <v>8.877152968608074</v>
       </c>
       <c r="E6">
-        <v>8.089771839034574</v>
+        <v>8.631807701041486</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>22.98365316176977</v>
+        <v>25.88836302770082</v>
       </c>
       <c r="H6">
-        <v>9.305356485664785</v>
+        <v>2.669165068266368</v>
       </c>
       <c r="I6">
-        <v>14.32538576634299</v>
+        <v>3.148317414177217</v>
       </c>
       <c r="J6">
-        <v>5.056801152276388</v>
+        <v>9.864901389147839</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.60737723132041</v>
       </c>
       <c r="L6">
-        <v>8.069082356344834</v>
+        <v>5.259131234662282</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.957505204326941</v>
       </c>
       <c r="O6">
-        <v>15.16145331679422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.84840449169459</v>
+      </c>
+      <c r="Q6">
+        <v>16.46427334884254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.47910294885563</v>
+        <v>18.47471999083282</v>
       </c>
       <c r="C7">
-        <v>12.25707989341509</v>
+        <v>10.86182985205127</v>
       </c>
       <c r="D7">
-        <v>8.598546538958788</v>
+        <v>8.942939645715672</v>
       </c>
       <c r="E7">
-        <v>8.066530754951415</v>
+        <v>8.664063513012554</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.02001557586224</v>
+        <v>26.08601631960815</v>
       </c>
       <c r="H7">
-        <v>9.27252023812135</v>
+        <v>2.604161006747565</v>
       </c>
       <c r="I7">
-        <v>14.21119554624796</v>
+        <v>3.102837485969554</v>
       </c>
       <c r="J7">
-        <v>5.047225463399807</v>
+        <v>9.873603080557434</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.59388853898821</v>
       </c>
       <c r="L7">
-        <v>8.146825482409174</v>
+        <v>5.276645874798636</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>8.042860996591294</v>
       </c>
       <c r="O7">
-        <v>15.12807627136057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.82789705307082</v>
+      </c>
+      <c r="Q7">
+        <v>16.51739037865906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.61266251799685</v>
+        <v>20.19540002640088</v>
       </c>
       <c r="C8">
-        <v>13.13325045612616</v>
+        <v>11.60304341271931</v>
       </c>
       <c r="D8">
-        <v>8.787595640057395</v>
+        <v>9.234390106360436</v>
       </c>
       <c r="E8">
-        <v>7.973474727303416</v>
+        <v>8.806810412122221</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23.26008432484233</v>
+        <v>26.99835833814386</v>
       </c>
       <c r="H8">
-        <v>9.143678564103391</v>
+        <v>2.32722647424962</v>
       </c>
       <c r="I8">
-        <v>13.73372418227394</v>
+        <v>2.902467680047676</v>
       </c>
       <c r="J8">
-        <v>5.006460844680364</v>
+        <v>9.924535364181139</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.55849636559733</v>
       </c>
       <c r="L8">
-        <v>8.48729627290194</v>
+        <v>5.351443988323077</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.40761216220495</v>
       </c>
       <c r="O8">
-        <v>15.01838351900056</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.74060380599198</v>
+      </c>
+      <c r="Q8">
+        <v>16.77748119655609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.32539049602932</v>
+        <v>23.20822828312391</v>
       </c>
       <c r="C9">
-        <v>14.70260557084927</v>
+        <v>12.90937126406992</v>
       </c>
       <c r="D9">
-        <v>9.193392581684</v>
+        <v>9.800787591613455</v>
       </c>
       <c r="E9">
-        <v>7.827149181903096</v>
+        <v>9.081523903491973</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.03666454633931</v>
+        <v>28.85127816717801</v>
       </c>
       <c r="H9">
-        <v>8.95420960324684</v>
+        <v>1.820590223746473</v>
       </c>
       <c r="I9">
-        <v>12.901038040228</v>
+        <v>2.527847101252107</v>
       </c>
       <c r="J9">
-        <v>4.931709148401151</v>
+        <v>10.05950951371367</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.55320573059094</v>
       </c>
       <c r="L9">
-        <v>9.140141397975038</v>
+        <v>5.488692193428356</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9.081477113696714</v>
       </c>
       <c r="O9">
-        <v>14.95265600872919</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.58531445934751</v>
+      </c>
+      <c r="Q9">
+        <v>17.35162239197879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.77152119699681</v>
+        <v>25.12732915530064</v>
       </c>
       <c r="C10">
-        <v>15.76033856776163</v>
+        <v>13.82953567121791</v>
       </c>
       <c r="D10">
-        <v>9.511438048300755</v>
+        <v>10.14511256713039</v>
       </c>
       <c r="E10">
-        <v>7.743701521783382</v>
+        <v>9.201826618790035</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>24.80751544730223</v>
+        <v>30.01465022224894</v>
       </c>
       <c r="H10">
-        <v>8.859030561914937</v>
+        <v>1.643651000505072</v>
       </c>
       <c r="I10">
-        <v>12.36262233914988</v>
+        <v>2.679199045492978</v>
       </c>
       <c r="J10">
-        <v>4.879781397510023</v>
+        <v>10.14002742258178</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.50798753861732</v>
       </c>
       <c r="L10">
-        <v>9.606541412728733</v>
+        <v>5.584404331480627</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9.465370315433191</v>
       </c>
       <c r="O10">
-        <v>15.00854393262898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.50170203136144</v>
+      </c>
+      <c r="Q10">
+        <v>17.71203310047284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.82442513942017</v>
+        <v>25.48937639428007</v>
       </c>
       <c r="C11">
-        <v>16.22024908807782</v>
+        <v>14.45411686535606</v>
       </c>
       <c r="D11">
-        <v>9.660125496019061</v>
+        <v>9.768956731922668</v>
       </c>
       <c r="E11">
-        <v>7.711439042881661</v>
+        <v>8.678947845179691</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.20374624378488</v>
+        <v>29.01975762544262</v>
       </c>
       <c r="H11">
-        <v>8.826581877822006</v>
+        <v>2.662248718835039</v>
       </c>
       <c r="I11">
-        <v>12.13643798057242</v>
+        <v>2.751331397655152</v>
       </c>
       <c r="J11">
-        <v>4.856768622356809</v>
+        <v>9.901917407644643</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.96135054008314</v>
       </c>
       <c r="L11">
-        <v>9.815112129651805</v>
+        <v>5.674006329964105</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.892091132094009</v>
       </c>
       <c r="O11">
-        <v>15.05935441035239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.61677737019627</v>
+      </c>
+      <c r="Q11">
+        <v>17.20457152667744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.21462855126402</v>
+        <v>25.4188477117714</v>
       </c>
       <c r="C12">
-        <v>16.39131790632185</v>
+        <v>14.76893686775248</v>
       </c>
       <c r="D12">
-        <v>9.716979425332745</v>
+        <v>9.378366305843164</v>
       </c>
       <c r="E12">
-        <v>7.700083966536086</v>
+        <v>8.300261196632478</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.36045307463655</v>
+        <v>27.9625584453221</v>
       </c>
       <c r="H12">
-        <v>8.815968344227009</v>
+        <v>4.044462482405693</v>
       </c>
       <c r="I12">
-        <v>12.05376993683217</v>
+        <v>2.758054164063373</v>
       </c>
       <c r="J12">
-        <v>4.848138564463442</v>
+        <v>9.688381405910446</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.53223263411599</v>
       </c>
       <c r="L12">
-        <v>9.893524885698074</v>
+        <v>5.781945721966039</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.326459575703179</v>
       </c>
       <c r="O12">
-        <v>15.08246610096881</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.73908148752573</v>
+      </c>
+      <c r="Q12">
+        <v>16.71144217636313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.13096808533771</v>
+        <v>24.99055553032632</v>
       </c>
       <c r="C13">
-        <v>16.35461295793144</v>
+        <v>14.89944872194284</v>
       </c>
       <c r="D13">
-        <v>9.70471089731207</v>
+        <v>8.944232650071923</v>
       </c>
       <c r="E13">
-        <v>7.702490441294817</v>
+        <v>8.014350495675533</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.3264057279551</v>
+        <v>26.7198557984372</v>
       </c>
       <c r="H13">
-        <v>8.818177830160479</v>
+        <v>5.498697494328639</v>
       </c>
       <c r="I13">
-        <v>12.07143623997946</v>
+        <v>2.720103747098941</v>
       </c>
       <c r="J13">
-        <v>4.849993502596598</v>
+        <v>9.47037369732548</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.14609491548755</v>
       </c>
       <c r="L13">
-        <v>9.876663308086133</v>
+        <v>5.905360193942606</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.73077501369976</v>
       </c>
       <c r="O13">
-        <v>15.07731299364221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.87417799803619</v>
+      </c>
+      <c r="Q13">
+        <v>16.17124173668242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.85669735811368</v>
+        <v>24.51865214371812</v>
       </c>
       <c r="C14">
-        <v>16.23438507866401</v>
+        <v>14.91457417233063</v>
       </c>
       <c r="D14">
-        <v>9.66479204379163</v>
+        <v>8.618917634152368</v>
       </c>
       <c r="E14">
-        <v>7.710487324642967</v>
+        <v>7.8745406453333</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.21650456560247</v>
+        <v>25.74806639596552</v>
       </c>
       <c r="H14">
-        <v>8.825674472560982</v>
+        <v>6.521837473857495</v>
       </c>
       <c r="I14">
-        <v>12.12957523659933</v>
+        <v>2.674728797297652</v>
       </c>
       <c r="J14">
-        <v>4.856056950419026</v>
+        <v>9.314575521484638</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.89532692933367</v>
       </c>
       <c r="L14">
-        <v>9.821574851772201</v>
+        <v>6.003005676860675</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.301954522039312</v>
       </c>
       <c r="O14">
-        <v>15.06117700788877</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.97542293656493</v>
+      </c>
+      <c r="Q14">
+        <v>15.76710732914911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.68759353079206</v>
+        <v>24.32064951038529</v>
       </c>
       <c r="C15">
-        <v>16.16033896206115</v>
+        <v>14.88585866648887</v>
       </c>
       <c r="D15">
-        <v>9.640411348175135</v>
+        <v>8.530038323809466</v>
       </c>
       <c r="E15">
-        <v>7.715499215143032</v>
+        <v>7.848510248413305</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.15005731401042</v>
+        <v>25.46097659548148</v>
       </c>
       <c r="H15">
-        <v>8.830487873991705</v>
+        <v>6.759502210334496</v>
       </c>
       <c r="I15">
-        <v>12.16558484233526</v>
+        <v>2.655559453844846</v>
       </c>
       <c r="J15">
-        <v>4.859781876734785</v>
+        <v>9.27437515573583</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.83944661662194</v>
       </c>
       <c r="L15">
-        <v>9.787756169413528</v>
+        <v>6.02342464642087</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.191544388672694</v>
       </c>
       <c r="O15">
-        <v>15.05180377299833</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>13.002390978509</v>
+      </c>
+      <c r="Q15">
+        <v>15.65491798111107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.70151539594855</v>
+        <v>23.58175832286783</v>
       </c>
       <c r="C16">
-        <v>15.72985150577883</v>
+        <v>14.50111083789658</v>
       </c>
       <c r="D16">
-        <v>9.501799259593099</v>
+        <v>8.458224876634585</v>
       </c>
       <c r="E16">
-        <v>7.745928201166246</v>
+        <v>7.850732135986103</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>24.78254799470645</v>
+        <v>25.14209813992289</v>
       </c>
       <c r="H16">
-        <v>8.86137908905118</v>
+        <v>6.557643852749634</v>
       </c>
       <c r="I16">
-        <v>12.37780477820529</v>
+        <v>2.560720122444982</v>
       </c>
       <c r="J16">
-        <v>4.88129732524649</v>
+        <v>9.278351409821148</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.93155482961595</v>
       </c>
       <c r="L16">
-        <v>9.59283388566668</v>
+        <v>5.95423152369836</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.131394660132677</v>
       </c>
       <c r="O16">
-        <v>15.00575317547237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.99975941268112</v>
+      </c>
+      <c r="Q16">
+        <v>15.58934451321983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.0813277147083</v>
+        <v>23.26635167030168</v>
       </c>
       <c r="C17">
-        <v>15.46028957074083</v>
+        <v>14.19242284454071</v>
       </c>
       <c r="D17">
-        <v>9.417771812307201</v>
+        <v>8.578806074930373</v>
       </c>
       <c r="E17">
-        <v>7.766084406846597</v>
+        <v>7.916332085615919</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>24.56885362433796</v>
+        <v>25.42851849843156</v>
       </c>
       <c r="H17">
-        <v>8.883187889586186</v>
+        <v>5.828630338737499</v>
       </c>
       <c r="I17">
-        <v>12.51298647795025</v>
+        <v>2.512270212779842</v>
       </c>
       <c r="J17">
-        <v>4.894650180048118</v>
+        <v>9.36471899175751</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.13313151529248</v>
       </c>
       <c r="L17">
-        <v>9.472295131752471</v>
+        <v>5.844980014622285</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.315684490123088</v>
       </c>
       <c r="O17">
-        <v>14.9841635410825</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.94571378087948</v>
+      </c>
+      <c r="Q17">
+        <v>15.7569274241261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.71897246344963</v>
+        <v>23.30125580779838</v>
       </c>
       <c r="C18">
-        <v>15.303244880726</v>
+        <v>13.90320355349883</v>
       </c>
       <c r="D18">
-        <v>9.369820141244894</v>
+        <v>8.8813539636879</v>
       </c>
       <c r="E18">
-        <v>7.778211372729259</v>
+        <v>8.100467780048687</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>24.4502271005731</v>
+        <v>26.28849365890352</v>
       </c>
       <c r="H18">
-        <v>8.896745702848213</v>
+        <v>4.587356725057178</v>
       </c>
       <c r="I18">
-        <v>12.5924838915043</v>
+        <v>2.508312243485047</v>
       </c>
       <c r="J18">
-        <v>4.902387954696332</v>
+        <v>9.534947906521355</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.46545553376792</v>
       </c>
       <c r="L18">
-        <v>9.402628414379748</v>
+        <v>5.710465915922271</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.738982521647102</v>
       </c>
       <c r="O18">
-        <v>14.97412245454244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.84243583308924</v>
+      </c>
+      <c r="Q18">
+        <v>16.15220766045357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.59531362412174</v>
+        <v>23.58874577570381</v>
       </c>
       <c r="C19">
-        <v>15.24972998266272</v>
+        <v>13.69195456883143</v>
       </c>
       <c r="D19">
-        <v>9.353650419300106</v>
+        <v>9.30401963583428</v>
       </c>
       <c r="E19">
-        <v>7.782407751652301</v>
+        <v>8.438583808968859</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24.41079417305605</v>
+        <v>27.472612588137</v>
       </c>
       <c r="H19">
-        <v>8.901506909497838</v>
+        <v>3.120705145473354</v>
       </c>
       <c r="I19">
-        <v>12.61969191363895</v>
+        <v>2.517049669647862</v>
       </c>
       <c r="J19">
-        <v>4.905017815644396</v>
+        <v>9.749034676213455</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.86242919092014</v>
       </c>
       <c r="L19">
-        <v>9.37898444130489</v>
+        <v>5.600691077090726</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.338291516256797</v>
       </c>
       <c r="O19">
-        <v>14.97112409783153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.72167299637396</v>
+      </c>
+      <c r="Q19">
+        <v>16.67259350885141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.14793073558549</v>
+        <v>24.59731336769207</v>
       </c>
       <c r="C20">
-        <v>15.48919214597733</v>
+        <v>13.65023672047569</v>
       </c>
       <c r="D20">
-        <v>9.426677685041804</v>
+        <v>10.04500827638722</v>
       </c>
       <c r="E20">
-        <v>7.763883212842922</v>
+        <v>9.157498901724573</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>24.59115738066269</v>
+        <v>29.59962351772443</v>
       </c>
       <c r="H20">
-        <v>8.880760554862208</v>
+        <v>1.587477141438435</v>
       </c>
       <c r="I20">
-        <v>12.49841366545944</v>
+        <v>2.627500710175751</v>
       </c>
       <c r="J20">
-        <v>4.893222811063646</v>
+        <v>10.09759548120255</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.46973327773098</v>
       </c>
       <c r="L20">
-        <v>9.485161860364396</v>
+        <v>5.55861795446349</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.371651285369426</v>
       </c>
       <c r="O20">
-        <v>14.98621419833101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.53354749754956</v>
+      </c>
+      <c r="Q20">
+        <v>17.56697578621975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.93748743885448</v>
+        <v>26.08612624076514</v>
       </c>
       <c r="C21">
-        <v>16.26978296096953</v>
+        <v>14.28386963938111</v>
       </c>
       <c r="D21">
-        <v>9.676502478916621</v>
+        <v>10.40188982468211</v>
       </c>
       <c r="E21">
-        <v>7.70811469899627</v>
+        <v>9.362332460791645</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.24860366398886</v>
+        <v>30.77505135023658</v>
       </c>
       <c r="H21">
-        <v>8.823426157303857</v>
+        <v>1.813218932413412</v>
       </c>
       <c r="I21">
-        <v>12.1124149267136</v>
+        <v>2.818451971225666</v>
       </c>
       <c r="J21">
-        <v>4.854273705509358</v>
+        <v>10.2163277022783</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.54494816464329</v>
       </c>
       <c r="L21">
-        <v>9.837771462804538</v>
+        <v>5.62939043831026</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.790828510940193</v>
       </c>
       <c r="O21">
-        <v>15.06580976251785</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.44891452257856</v>
+      </c>
+      <c r="Q21">
+        <v>17.97697812544073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.05752003864696</v>
+        <v>27.00447707833688</v>
       </c>
       <c r="C22">
-        <v>16.76193078561594</v>
+        <v>14.67457979345423</v>
       </c>
       <c r="D22">
-        <v>9.842967662697323</v>
+        <v>10.60414731925963</v>
       </c>
       <c r="E22">
-        <v>7.676712865755333</v>
+        <v>9.461627172688072</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>25.71714724750992</v>
+        <v>31.49100217808635</v>
       </c>
       <c r="H22">
-        <v>8.79576932537589</v>
+        <v>1.977901155332477</v>
       </c>
       <c r="I22">
-        <v>11.87769691674027</v>
+        <v>2.93406058863225</v>
       </c>
       <c r="J22">
-        <v>4.829308415669956</v>
+        <v>10.28880917776174</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.58823263381216</v>
       </c>
       <c r="L22">
-        <v>10.06489072835188</v>
+        <v>5.675485295168463</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.01059610710581</v>
       </c>
       <c r="O22">
-        <v>15.14048940337614</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.39951414367581</v>
+      </c>
+      <c r="Q22">
+        <v>18.22815911302168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.46423781528597</v>
+        <v>26.53217674859494</v>
       </c>
       <c r="C23">
-        <v>16.50091801104642</v>
+        <v>14.44707208082973</v>
       </c>
       <c r="D23">
-        <v>9.753838551218621</v>
+        <v>10.49920916882598</v>
       </c>
       <c r="E23">
-        <v>7.692996159468627</v>
+        <v>9.412448673886582</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25.46349270188694</v>
+        <v>31.1466284679662</v>
       </c>
       <c r="H23">
-        <v>8.809593201017501</v>
+        <v>1.891261677626022</v>
       </c>
       <c r="I23">
-        <v>12.00125701216582</v>
+        <v>2.867950495437899</v>
       </c>
       <c r="J23">
-        <v>4.842589126448895</v>
+        <v>10.25691230908172</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.58191671139395</v>
       </c>
       <c r="L23">
-        <v>9.943992593998018</v>
+        <v>5.651324587858388</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.890317818094308</v>
       </c>
       <c r="O23">
-        <v>15.09848722500057</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.42155089398581</v>
+      </c>
+      <c r="Q23">
+        <v>18.11065003322395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.11783758636398</v>
+        <v>24.63647783914032</v>
       </c>
       <c r="C24">
-        <v>15.47613173651944</v>
+        <v>13.58906510672428</v>
       </c>
       <c r="D24">
-        <v>9.422650226464917</v>
+        <v>10.09227276421063</v>
       </c>
       <c r="E24">
-        <v>7.764876697310799</v>
+        <v>9.217690599390872</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>24.58106068809127</v>
+        <v>29.77570265990251</v>
       </c>
       <c r="H24">
-        <v>8.881854785501005</v>
+        <v>1.566766887503477</v>
       </c>
       <c r="I24">
-        <v>12.50499651194441</v>
+        <v>2.62036264807557</v>
       </c>
       <c r="J24">
-        <v>4.893867934209779</v>
+        <v>10.13114425134247</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.54193289214159</v>
       </c>
       <c r="L24">
-        <v>9.479345952695093</v>
+        <v>5.557421087998604</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>9.42913346446697</v>
       </c>
       <c r="O24">
-        <v>14.98527972758152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.51705306945255</v>
+      </c>
+      <c r="Q24">
+        <v>17.64665930347871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.37086635217424</v>
+        <v>22.41024403831645</v>
       </c>
       <c r="C25">
-        <v>14.29452938228506</v>
+        <v>12.60275689823491</v>
       </c>
       <c r="D25">
-        <v>9.080007260884198</v>
+        <v>9.644420982747915</v>
       </c>
       <c r="E25">
-        <v>7.862662793260873</v>
+        <v>9.002488521043416</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>23.79223851550096</v>
+        <v>28.28912876386799</v>
       </c>
       <c r="H25">
-        <v>8.998153163031947</v>
+        <v>1.955298038037717</v>
       </c>
       <c r="I25">
-        <v>13.11425979545985</v>
+        <v>2.643816959184254</v>
       </c>
       <c r="J25">
-        <v>4.951393223745677</v>
+        <v>10.00923432493709</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.52357261010047</v>
       </c>
       <c r="L25">
-        <v>8.965580609858357</v>
+        <v>5.451961706266065</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.909218414367857</v>
       </c>
       <c r="O25">
-        <v>14.95308766146468</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.63057227992064</v>
+      </c>
+      <c r="Q25">
+        <v>17.16532569784345</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.65623374074384</v>
+        <v>20.32121100681292</v>
       </c>
       <c r="C2">
-        <v>11.76789681656694</v>
+        <v>11.96820183689808</v>
       </c>
       <c r="D2">
-        <v>9.316559223749286</v>
+        <v>9.24635922932997</v>
       </c>
       <c r="E2">
-        <v>8.849545950841723</v>
+        <v>8.740306767358085</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>27.29661299205682</v>
+        <v>25.85380289605398</v>
       </c>
       <c r="H2">
-        <v>2.253461038448652</v>
+        <v>2.18819921619421</v>
       </c>
       <c r="I2">
-        <v>2.837456811817484</v>
+        <v>2.749298300592651</v>
       </c>
       <c r="J2">
-        <v>9.948732046838742</v>
+        <v>10.14670805649303</v>
       </c>
       <c r="K2">
-        <v>15.57241643380909</v>
+        <v>15.03168063363663</v>
       </c>
       <c r="L2">
-        <v>5.371570401658291</v>
+        <v>12.61533551828476</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.642093584350247</v>
       </c>
       <c r="N2">
-        <v>8.499436944479022</v>
+        <v>5.340525539997786</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.71431743147144</v>
+        <v>8.643096024294872</v>
       </c>
       <c r="Q2">
-        <v>16.87219013078134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.69729543733857</v>
+      </c>
+      <c r="S2">
+        <v>16.43919064970601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.34780041836152</v>
+        <v>19.04968205821932</v>
       </c>
       <c r="C3">
-        <v>11.20277351381822</v>
+        <v>11.31471316938692</v>
       </c>
       <c r="D3">
-        <v>9.087815608764227</v>
+        <v>9.026963183670897</v>
       </c>
       <c r="E3">
-        <v>8.73791214046306</v>
+        <v>8.642739764853195</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>26.57058566832703</v>
+        <v>25.23314754546173</v>
       </c>
       <c r="H3">
-        <v>2.466601460845203</v>
+        <v>2.387411604473905</v>
       </c>
       <c r="I3">
-        <v>2.992893277706921</v>
+        <v>2.888082044628471</v>
       </c>
       <c r="J3">
-        <v>9.904359836194638</v>
+        <v>10.08346165210412</v>
       </c>
       <c r="K3">
-        <v>15.59220114729604</v>
+        <v>15.08061480031838</v>
       </c>
       <c r="L3">
-        <v>5.313971433168106</v>
+        <v>12.73991557110676</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.609654099473175</v>
       </c>
       <c r="N3">
-        <v>8.217477938808642</v>
+        <v>5.285001423182601</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.78132384379379</v>
+        <v>8.357147320183509</v>
       </c>
       <c r="Q3">
-        <v>16.65964930516803</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.7392332671316</v>
+      </c>
+      <c r="S3">
+        <v>16.26110742509365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.49576290943723</v>
+        <v>18.22065594047543</v>
       </c>
       <c r="C4">
-        <v>10.84214571055386</v>
+        <v>10.89672906761528</v>
       </c>
       <c r="D4">
-        <v>8.946485702500944</v>
+        <v>8.891468682679484</v>
       </c>
       <c r="E4">
-        <v>8.667989258448801</v>
+        <v>8.581565599405943</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>26.12595408256183</v>
+        <v>24.85572267568354</v>
       </c>
       <c r="H4">
-        <v>2.602370117057616</v>
+        <v>2.51437221242936</v>
       </c>
       <c r="I4">
-        <v>3.092670926709677</v>
+        <v>2.97751595825275</v>
       </c>
       <c r="J4">
-        <v>9.880073621417086</v>
+        <v>10.04538684552207</v>
       </c>
       <c r="K4">
-        <v>15.60886252336297</v>
+        <v>15.1139009632725</v>
       </c>
       <c r="L4">
-        <v>5.277296037868354</v>
+        <v>12.81736143253904</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.609282336704895</v>
       </c>
       <c r="N4">
-        <v>8.040293783451148</v>
+        <v>5.249673782877496</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.8250457737319</v>
+        <v>8.177739192617778</v>
       </c>
       <c r="Q4">
-        <v>16.53386812519288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.76795147722191</v>
+      </c>
+      <c r="S4">
+        <v>16.15543668416493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.13141014732565</v>
+        <v>17.86571214687982</v>
       </c>
       <c r="C5">
-        <v>10.69840926719665</v>
+        <v>10.72926946937984</v>
       </c>
       <c r="D5">
-        <v>8.88790655641958</v>
+        <v>8.835289059765573</v>
       </c>
       <c r="E5">
-        <v>8.638092916464126</v>
+        <v>8.555276819118049</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>25.93399615919943</v>
+        <v>24.69160508960705</v>
       </c>
       <c r="H5">
-        <v>2.65925936567792</v>
+        <v>2.567596455040646</v>
       </c>
       <c r="I5">
-        <v>3.137237707864575</v>
+        <v>3.018319329064912</v>
       </c>
       <c r="J5">
-        <v>9.869013663010453</v>
+        <v>10.02814597160832</v>
       </c>
       <c r="K5">
-        <v>15.61225182566485</v>
+        <v>15.12384793164292</v>
       </c>
       <c r="L5">
-        <v>5.261878642830617</v>
+        <v>12.84505429972405</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.611513705837456</v>
       </c>
       <c r="N5">
-        <v>7.968218934085631</v>
+        <v>5.234838701925396</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.84425156082177</v>
+        <v>8.10482327003611</v>
       </c>
       <c r="Q5">
-        <v>16.47908444249965</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.78123041855529</v>
+      </c>
+      <c r="S5">
+        <v>16.10858071896881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.06411213127221</v>
+        <v>17.79993795511335</v>
       </c>
       <c r="C6">
-        <v>10.68237856968884</v>
+        <v>10.70975316879309</v>
       </c>
       <c r="D6">
-        <v>8.877152968608074</v>
+        <v>8.824936526430934</v>
       </c>
       <c r="E6">
-        <v>8.631807701041486</v>
+        <v>8.549612719158072</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>25.88836302770082</v>
+        <v>24.65049978707189</v>
       </c>
       <c r="H6">
-        <v>2.669165068266368</v>
+        <v>2.576878019514464</v>
       </c>
       <c r="I6">
-        <v>3.148317414177217</v>
+        <v>3.029409686371803</v>
       </c>
       <c r="J6">
-        <v>9.864901389147839</v>
+        <v>10.0229483725744</v>
       </c>
       <c r="K6">
-        <v>15.60737723132041</v>
+        <v>15.12016392899484</v>
       </c>
       <c r="L6">
-        <v>5.259131234662282</v>
+        <v>12.84465163297531</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.609098121474299</v>
       </c>
       <c r="N6">
-        <v>7.957505204326941</v>
+        <v>5.232206289754699</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.84840449169459</v>
+        <v>8.093975806949564</v>
       </c>
       <c r="Q6">
-        <v>16.46427334884254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.78451798056722</v>
+      </c>
+      <c r="S6">
+        <v>16.09507919877444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.47471999083282</v>
+        <v>18.19333321461043</v>
       </c>
       <c r="C7">
-        <v>10.86182985205127</v>
+        <v>10.90938136783302</v>
       </c>
       <c r="D7">
-        <v>8.942939645715672</v>
+        <v>8.888583424016602</v>
       </c>
       <c r="E7">
-        <v>8.664063513012554</v>
+        <v>8.578226587825844</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>26.08601631960815</v>
+        <v>24.90168422616699</v>
       </c>
       <c r="H7">
-        <v>2.604161006747565</v>
+        <v>2.516693536263177</v>
       </c>
       <c r="I7">
-        <v>3.102837485969554</v>
+        <v>2.989839793324254</v>
       </c>
       <c r="J7">
-        <v>9.873603080557434</v>
+        <v>9.998008477549739</v>
       </c>
       <c r="K7">
-        <v>15.59388853898821</v>
+        <v>15.09384505375285</v>
       </c>
       <c r="L7">
-        <v>5.276645874798636</v>
+        <v>12.79926553949249</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.597262998770363</v>
       </c>
       <c r="N7">
-        <v>8.042860996591294</v>
+        <v>5.248847392163146</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.82789705307082</v>
+        <v>8.178937602228261</v>
       </c>
       <c r="Q7">
-        <v>16.51739037865906</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.77222817465474</v>
+      </c>
+      <c r="S7">
+        <v>16.12877997778753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.19540002640088</v>
+        <v>19.8535633013198</v>
       </c>
       <c r="C8">
-        <v>11.60304341271931</v>
+        <v>11.74999515400916</v>
       </c>
       <c r="D8">
-        <v>9.234390106360436</v>
+        <v>9.16946254862925</v>
       </c>
       <c r="E8">
-        <v>8.806810412122221</v>
+        <v>8.704157747772406</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.99835833814386</v>
+        <v>25.86886135895302</v>
       </c>
       <c r="H8">
-        <v>2.32722647424962</v>
+        <v>2.259061656601014</v>
       </c>
       <c r="I8">
-        <v>2.902467680047676</v>
+        <v>2.812394452325587</v>
       </c>
       <c r="J8">
-        <v>9.924535364181139</v>
+        <v>9.983464829234567</v>
       </c>
       <c r="K8">
-        <v>15.55849636559733</v>
+        <v>15.01049769469586</v>
       </c>
       <c r="L8">
-        <v>5.351443988323077</v>
+        <v>12.62630915396412</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.601505793258317</v>
       </c>
       <c r="N8">
-        <v>8.40761216220495</v>
+        <v>5.32044335656375</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.74060380599198</v>
+        <v>8.545517930931275</v>
       </c>
       <c r="Q8">
-        <v>16.77748119655609</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.71960136857948</v>
+      </c>
+      <c r="S8">
+        <v>16.32292045784135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.20822828312391</v>
+        <v>22.77461371848401</v>
       </c>
       <c r="C9">
-        <v>12.90937126406992</v>
+        <v>13.25363104465885</v>
       </c>
       <c r="D9">
-        <v>9.800787591613455</v>
+        <v>9.713703570186125</v>
       </c>
       <c r="E9">
-        <v>9.081523903491973</v>
+        <v>8.944981666027147</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>28.85127816717801</v>
+        <v>27.53304290006804</v>
       </c>
       <c r="H9">
-        <v>1.820590223746473</v>
+        <v>1.786181349063441</v>
       </c>
       <c r="I9">
-        <v>2.527847101252107</v>
+        <v>2.489245317464709</v>
       </c>
       <c r="J9">
-        <v>10.05950951371367</v>
+        <v>10.11869050304028</v>
       </c>
       <c r="K9">
-        <v>15.55320573059094</v>
+        <v>14.92002665154797</v>
       </c>
       <c r="L9">
-        <v>5.488692193428356</v>
+        <v>12.33444074008333</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.794779261165571</v>
       </c>
       <c r="N9">
-        <v>9.081477113696714</v>
+        <v>5.452709517788313</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.58531445934751</v>
+        <v>9.229483603045185</v>
       </c>
       <c r="Q9">
-        <v>17.35162239197879</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.63052863394795</v>
+      </c>
+      <c r="S9">
+        <v>16.79777789645246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.12732915530064</v>
+        <v>24.60568552361412</v>
       </c>
       <c r="C10">
-        <v>13.82953567121791</v>
+        <v>14.2602628046179</v>
       </c>
       <c r="D10">
-        <v>10.14511256713039</v>
+        <v>10.04696002129557</v>
       </c>
       <c r="E10">
-        <v>9.201826618790035</v>
+        <v>9.047106955219133</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>30.01465022224894</v>
+        <v>29.02899773811679</v>
       </c>
       <c r="H10">
-        <v>1.643651000505072</v>
+        <v>1.651840266060447</v>
       </c>
       <c r="I10">
-        <v>2.679199045492978</v>
+        <v>2.708878436988074</v>
       </c>
       <c r="J10">
-        <v>10.14002742258178</v>
+        <v>9.97019411983606</v>
       </c>
       <c r="K10">
-        <v>15.50798753861732</v>
+        <v>14.78284440363094</v>
       </c>
       <c r="L10">
-        <v>5.584404331480627</v>
+        <v>12.06103709043671</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.954149603267183</v>
       </c>
       <c r="N10">
-        <v>9.465370315433191</v>
+        <v>5.545404365432701</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.50170203136144</v>
+        <v>9.613385358518551</v>
       </c>
       <c r="Q10">
-        <v>17.71203310047284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.60715330004058</v>
+      </c>
+      <c r="S10">
+        <v>17.03171736213395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.48937639428007</v>
+        <v>24.92046207360326</v>
       </c>
       <c r="C11">
-        <v>14.45411686535606</v>
+        <v>14.8083247338308</v>
       </c>
       <c r="D11">
-        <v>9.768956731922668</v>
+        <v>9.680653268791401</v>
       </c>
       <c r="E11">
-        <v>8.678947845179691</v>
+        <v>8.544389250395685</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>29.01975762544262</v>
+        <v>29.04374093281102</v>
       </c>
       <c r="H11">
-        <v>2.662248718835039</v>
+        <v>2.660570105390452</v>
       </c>
       <c r="I11">
-        <v>2.751331397655152</v>
+        <v>2.772251573395058</v>
       </c>
       <c r="J11">
-        <v>9.901917407644643</v>
+        <v>9.321131557190071</v>
       </c>
       <c r="K11">
-        <v>14.96135054008314</v>
+        <v>14.21654608924261</v>
       </c>
       <c r="L11">
-        <v>5.674006329964105</v>
+        <v>11.59231935687107</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.607406941181706</v>
       </c>
       <c r="N11">
-        <v>8.892091132094009</v>
+        <v>5.642428805260344</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.61677737019627</v>
+        <v>9.018580044816723</v>
       </c>
       <c r="Q11">
-        <v>17.20457152667744</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.77089627713968</v>
+      </c>
+      <c r="S11">
+        <v>16.42807186206967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.4188477117714</v>
+        <v>24.84574249090455</v>
       </c>
       <c r="C12">
-        <v>14.76893686775248</v>
+        <v>15.06053741652068</v>
       </c>
       <c r="D12">
-        <v>9.378366305843164</v>
+        <v>9.29841405913095</v>
       </c>
       <c r="E12">
-        <v>8.300261196632478</v>
+        <v>8.183396805286066</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>27.9625584453221</v>
+        <v>28.4958686879052</v>
       </c>
       <c r="H12">
-        <v>4.044462482405693</v>
+        <v>4.046500199543267</v>
       </c>
       <c r="I12">
-        <v>2.758054164063373</v>
+        <v>2.776476485748933</v>
       </c>
       <c r="J12">
-        <v>9.688381405910446</v>
+        <v>8.96579993919465</v>
       </c>
       <c r="K12">
-        <v>14.53223263411599</v>
+        <v>13.81308513976143</v>
       </c>
       <c r="L12">
-        <v>5.781945721966039</v>
+        <v>11.29675972051959</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.305143498349635</v>
       </c>
       <c r="N12">
-        <v>8.326459575703179</v>
+        <v>5.755914750671073</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.73908148752573</v>
+        <v>8.438920688501153</v>
       </c>
       <c r="Q12">
-        <v>16.71144217636313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.91461235263231</v>
+      </c>
+      <c r="S12">
+        <v>15.9175640892154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.99055553032632</v>
+        <v>24.45841218486319</v>
       </c>
       <c r="C13">
-        <v>14.89944872194284</v>
+        <v>15.15256799079104</v>
       </c>
       <c r="D13">
-        <v>8.944232650071923</v>
+        <v>8.87059578187182</v>
       </c>
       <c r="E13">
-        <v>8.014350495675533</v>
+        <v>7.915128632788278</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.7198557984372</v>
+        <v>27.21251546918043</v>
       </c>
       <c r="H13">
-        <v>5.498697494328639</v>
+        <v>5.498938356890712</v>
       </c>
       <c r="I13">
-        <v>2.720103747098941</v>
+        <v>2.743202796260041</v>
       </c>
       <c r="J13">
-        <v>9.47037369732548</v>
+        <v>8.851824771563274</v>
       </c>
       <c r="K13">
-        <v>14.14609491548755</v>
+        <v>13.49885757186335</v>
       </c>
       <c r="L13">
-        <v>5.905360193942606</v>
+        <v>11.09529367934414</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.015593869590647</v>
       </c>
       <c r="N13">
-        <v>7.73077501369976</v>
+        <v>5.885491643219913</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.87417799803619</v>
+        <v>7.836555964231148</v>
       </c>
       <c r="Q13">
-        <v>16.17124173668242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>13.04483020136887</v>
+      </c>
+      <c r="S13">
+        <v>15.44291473910967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.51865214371812</v>
+        <v>24.03566583155056</v>
       </c>
       <c r="C14">
-        <v>14.91457417233063</v>
+        <v>15.15102129183616</v>
       </c>
       <c r="D14">
-        <v>8.618917634152368</v>
+        <v>8.548982515125378</v>
       </c>
       <c r="E14">
-        <v>7.8745406453333</v>
+        <v>7.788691212894845</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.74806639596552</v>
+        <v>25.97326020282672</v>
       </c>
       <c r="H14">
-        <v>6.521837473857495</v>
+        <v>6.520437936720256</v>
       </c>
       <c r="I14">
-        <v>2.674728797297652</v>
+        <v>2.704655329916958</v>
       </c>
       <c r="J14">
-        <v>9.314575521484638</v>
+        <v>8.865262409115045</v>
       </c>
       <c r="K14">
-        <v>13.89532692933367</v>
+        <v>13.31583449693012</v>
       </c>
       <c r="L14">
-        <v>6.003005676860675</v>
+        <v>10.98989208289076</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.819708437716086</v>
       </c>
       <c r="N14">
-        <v>7.301954522039312</v>
+        <v>5.988015257106657</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.97542293656493</v>
+        <v>7.406026995980152</v>
       </c>
       <c r="Q14">
-        <v>15.76710732914911</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>13.13012113255237</v>
+      </c>
+      <c r="S14">
+        <v>15.11978975851387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.32064951038529</v>
+        <v>23.85848571584383</v>
       </c>
       <c r="C15">
-        <v>14.88585866648887</v>
+        <v>15.12270204974157</v>
       </c>
       <c r="D15">
-        <v>8.530038323809466</v>
+        <v>8.460771103339324</v>
       </c>
       <c r="E15">
-        <v>7.848510248413305</v>
+        <v>7.766565328975463</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.46097659548148</v>
+        <v>25.52007306165666</v>
       </c>
       <c r="H15">
-        <v>6.759502210334496</v>
+        <v>6.757370120381188</v>
       </c>
       <c r="I15">
-        <v>2.655559453844846</v>
+        <v>2.689211491836771</v>
       </c>
       <c r="J15">
-        <v>9.27437515573583</v>
+        <v>8.907638380158161</v>
       </c>
       <c r="K15">
-        <v>13.83944661662194</v>
+        <v>13.28386877306373</v>
       </c>
       <c r="L15">
-        <v>6.02342464642087</v>
+        <v>10.97687895664656</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.772335226392469</v>
       </c>
       <c r="N15">
-        <v>7.191544388672694</v>
+        <v>6.010110679440007</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>13.002390978509</v>
+        <v>7.296459653192651</v>
       </c>
       <c r="Q15">
-        <v>15.65491798111107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13.14803031434544</v>
+      </c>
+      <c r="S15">
+        <v>15.04216966702316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.58175832286783</v>
+        <v>23.19421045640551</v>
       </c>
       <c r="C16">
-        <v>14.50111083789658</v>
+        <v>14.76920777401995</v>
       </c>
       <c r="D16">
-        <v>8.458224876634585</v>
+        <v>8.387549532739941</v>
       </c>
       <c r="E16">
-        <v>7.850732135986103</v>
+        <v>7.773574590979146</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.14209813992289</v>
+        <v>24.38140101239224</v>
       </c>
       <c r="H16">
-        <v>6.557643852749634</v>
+        <v>6.551434354000958</v>
       </c>
       <c r="I16">
-        <v>2.560720122444982</v>
+        <v>2.609176494142309</v>
       </c>
       <c r="J16">
-        <v>9.278351409821148</v>
+        <v>9.265705074019143</v>
       </c>
       <c r="K16">
-        <v>13.93155482961595</v>
+        <v>13.43667579457945</v>
       </c>
       <c r="L16">
-        <v>5.95423152369836</v>
+        <v>11.12267839112484</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.805932503865574</v>
       </c>
       <c r="N16">
-        <v>7.131394660132677</v>
+        <v>5.94500489559432</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.99975941268112</v>
+        <v>7.246987967989337</v>
       </c>
       <c r="Q16">
-        <v>15.58934451321983</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>13.10105257175658</v>
+      </c>
+      <c r="S16">
+        <v>15.09944232121819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.26635167030168</v>
+        <v>22.90180887408912</v>
       </c>
       <c r="C17">
-        <v>14.19242284454071</v>
+        <v>14.4831244393208</v>
       </c>
       <c r="D17">
-        <v>8.578806074930373</v>
+        <v>8.505809381764278</v>
       </c>
       <c r="E17">
-        <v>7.916332085615919</v>
+        <v>7.834304215226133</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.42851849843156</v>
+        <v>24.30050306432098</v>
       </c>
       <c r="H17">
-        <v>5.828630338737499</v>
+        <v>5.819201459364286</v>
       </c>
       <c r="I17">
-        <v>2.512270212779842</v>
+        <v>2.568010152499741</v>
       </c>
       <c r="J17">
-        <v>9.36471899175751</v>
+        <v>9.498811015194072</v>
       </c>
       <c r="K17">
-        <v>14.13313151529248</v>
+        <v>13.64525345208389</v>
       </c>
       <c r="L17">
-        <v>5.844980014622285</v>
+        <v>11.29471123711903</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.926459445984076</v>
       </c>
       <c r="N17">
-        <v>7.315684490123088</v>
+        <v>5.835186431318161</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.94571378087948</v>
+        <v>7.439147121529058</v>
       </c>
       <c r="Q17">
-        <v>15.7569274241261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>13.02609999941817</v>
+      </c>
+      <c r="S17">
+        <v>15.30504435675836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.30125580779838</v>
+        <v>22.92800397051992</v>
       </c>
       <c r="C18">
-        <v>13.90320355349883</v>
+        <v>14.22482766918034</v>
       </c>
       <c r="D18">
-        <v>8.8813539636879</v>
+        <v>8.803568877861235</v>
       </c>
       <c r="E18">
-        <v>8.100467780048687</v>
+        <v>8.004183827880757</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>26.28849365890352</v>
+        <v>24.96521886472043</v>
       </c>
       <c r="H18">
-        <v>4.587356725057178</v>
+        <v>4.574524223190775</v>
       </c>
       <c r="I18">
-        <v>2.508312243485047</v>
+        <v>2.551699564748113</v>
       </c>
       <c r="J18">
-        <v>9.534947906521355</v>
+        <v>9.718456121928314</v>
       </c>
       <c r="K18">
-        <v>14.46545553376792</v>
+        <v>13.9498583880868</v>
       </c>
       <c r="L18">
-        <v>5.710465915922271</v>
+        <v>11.52948589867841</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.147537493973656</v>
       </c>
       <c r="N18">
-        <v>7.738982521647102</v>
+        <v>5.696230756666256</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.84243583308924</v>
+        <v>7.870926331107037</v>
       </c>
       <c r="Q18">
-        <v>16.15220766045357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.91371706703452</v>
+      </c>
+      <c r="S18">
+        <v>15.69145260211701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.58874577570381</v>
+        <v>23.18677842293926</v>
       </c>
       <c r="C19">
-        <v>13.69195456883143</v>
+        <v>14.05538556661325</v>
       </c>
       <c r="D19">
-        <v>9.30401963583428</v>
+        <v>9.219288305357734</v>
       </c>
       <c r="E19">
-        <v>8.438583808968859</v>
+        <v>8.321808345699903</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.472612588137</v>
+        <v>26.03439464000292</v>
       </c>
       <c r="H19">
-        <v>3.120705145473354</v>
+        <v>3.103527176138008</v>
       </c>
       <c r="I19">
-        <v>2.517049669647862</v>
+        <v>2.572049961025819</v>
       </c>
       <c r="J19">
-        <v>9.749034676213455</v>
+        <v>9.929572952909631</v>
       </c>
       <c r="K19">
-        <v>14.86242919092014</v>
+        <v>14.29752439404652</v>
       </c>
       <c r="L19">
-        <v>5.600691077090726</v>
+        <v>11.78901109161693</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.421255814546889</v>
       </c>
       <c r="N19">
-        <v>8.338291516256797</v>
+        <v>5.578792486268541</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.72167299637396</v>
+        <v>8.479428355530585</v>
       </c>
       <c r="Q19">
-        <v>16.67259350885141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.79127698041362</v>
+      </c>
+      <c r="S19">
+        <v>16.17478644588133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.59731336769207</v>
+        <v>24.11595315928698</v>
       </c>
       <c r="C20">
-        <v>13.65023672047569</v>
+        <v>14.08478468776967</v>
       </c>
       <c r="D20">
-        <v>10.04500827638722</v>
+        <v>9.947630759047811</v>
       </c>
       <c r="E20">
-        <v>9.157498901724573</v>
+        <v>9.005904236894398</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>29.59962351772443</v>
+        <v>28.24998848537098</v>
       </c>
       <c r="H20">
-        <v>1.587477141438435</v>
+        <v>1.570510522334025</v>
       </c>
       <c r="I20">
-        <v>2.627500710175751</v>
+        <v>2.669431714420235</v>
       </c>
       <c r="J20">
-        <v>10.09759548120255</v>
+        <v>10.12593573503642</v>
       </c>
       <c r="K20">
-        <v>15.46973327773098</v>
+        <v>14.79088600870432</v>
       </c>
       <c r="L20">
-        <v>5.55861795446349</v>
+        <v>12.1127494731626</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.885128555003627</v>
       </c>
       <c r="N20">
-        <v>9.371651285369426</v>
+        <v>5.521341029427679</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.53354749754956</v>
+        <v>9.523840227459903</v>
       </c>
       <c r="Q20">
-        <v>17.56697578621975</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.61888023413354</v>
+      </c>
+      <c r="S20">
+        <v>16.95559320873122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.08612624076514</v>
+        <v>25.44300785039152</v>
       </c>
       <c r="C21">
-        <v>14.28386963938111</v>
+        <v>14.66983428945003</v>
       </c>
       <c r="D21">
-        <v>10.40188982468211</v>
+        <v>10.30614973053277</v>
       </c>
       <c r="E21">
-        <v>9.362332460791645</v>
+        <v>9.203882620680643</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>30.77505135023658</v>
+        <v>31.10670159760106</v>
       </c>
       <c r="H21">
-        <v>1.813218932413412</v>
+        <v>1.801601402231838</v>
       </c>
       <c r="I21">
-        <v>2.818451971225666</v>
+        <v>2.83118114656783</v>
       </c>
       <c r="J21">
-        <v>10.2163277022783</v>
+        <v>9.379589397559457</v>
       </c>
       <c r="K21">
-        <v>15.54494816464329</v>
+        <v>14.67842003739733</v>
       </c>
       <c r="L21">
-        <v>5.62939043831026</v>
+        <v>11.90081534722246</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.01862935638431</v>
       </c>
       <c r="N21">
-        <v>9.790828510940193</v>
+        <v>5.584437939442648</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.44891452257856</v>
+        <v>9.923161586560132</v>
       </c>
       <c r="Q21">
-        <v>17.97697812544073</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.61058380292825</v>
+      </c>
+      <c r="S21">
+        <v>17.07529847370322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.00447707833688</v>
+        <v>26.25552915510701</v>
       </c>
       <c r="C22">
-        <v>14.67457979345423</v>
+        <v>15.01839182806071</v>
       </c>
       <c r="D22">
-        <v>10.60414731925963</v>
+        <v>10.51122606414075</v>
       </c>
       <c r="E22">
-        <v>9.461627172688072</v>
+        <v>9.302145027661592</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>31.49100217808635</v>
+        <v>33.02286662926316</v>
       </c>
       <c r="H22">
-        <v>1.977901155332477</v>
+        <v>1.948365755195618</v>
       </c>
       <c r="I22">
-        <v>2.93406058863225</v>
+        <v>2.926844894446754</v>
       </c>
       <c r="J22">
-        <v>10.28880917776174</v>
+        <v>8.884819906142804</v>
       </c>
       <c r="K22">
-        <v>15.58823263381216</v>
+        <v>14.59115728560049</v>
       </c>
       <c r="L22">
-        <v>5.675485295168463</v>
+        <v>11.75396057656131</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.10386058232444</v>
       </c>
       <c r="N22">
-        <v>10.01059610710581</v>
+        <v>5.626470243925314</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.39951414367581</v>
+        <v>10.128131813821</v>
       </c>
       <c r="Q22">
-        <v>18.22815911302168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.61515922268796</v>
+      </c>
+      <c r="S22">
+        <v>17.12517478820896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.53217674859494</v>
+        <v>25.85166819922402</v>
       </c>
       <c r="C23">
-        <v>14.44707208082973</v>
+        <v>14.82864379062336</v>
       </c>
       <c r="D23">
-        <v>10.49920916882598</v>
+        <v>10.40310293496797</v>
       </c>
       <c r="E23">
-        <v>9.412448673886582</v>
+        <v>9.251663969367996</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>31.1466284679662</v>
+        <v>31.83762201293809</v>
       </c>
       <c r="H23">
-        <v>1.891261677626022</v>
+        <v>1.872225750777023</v>
       </c>
       <c r="I23">
-        <v>2.867950495437899</v>
+        <v>2.870754106544951</v>
       </c>
       <c r="J23">
-        <v>10.25691230908172</v>
+        <v>9.235741554861219</v>
       </c>
       <c r="K23">
-        <v>15.58191671139395</v>
+        <v>14.6680527164555</v>
       </c>
       <c r="L23">
-        <v>5.651324587858388</v>
+        <v>11.85240169345462</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.0837311214936</v>
       </c>
       <c r="N23">
-        <v>9.890317818094308</v>
+        <v>5.604753328889037</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.42155089398581</v>
+        <v>10.01873329278436</v>
       </c>
       <c r="Q23">
-        <v>18.11065003322395</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.6032562768686</v>
+      </c>
+      <c r="S23">
+        <v>17.14041519506966</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.63647783914032</v>
+        <v>24.15334334380653</v>
       </c>
       <c r="C24">
-        <v>13.58906510672428</v>
+        <v>14.0262537636363</v>
       </c>
       <c r="D24">
-        <v>10.09227276421063</v>
+        <v>9.994150596148495</v>
       </c>
       <c r="E24">
-        <v>9.217690599390872</v>
+        <v>9.063957831474134</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>29.77570265990251</v>
+        <v>28.40430554205022</v>
       </c>
       <c r="H24">
-        <v>1.566766887503477</v>
+        <v>1.571043589238298</v>
       </c>
       <c r="I24">
-        <v>2.62036264807557</v>
+        <v>2.659868865110957</v>
       </c>
       <c r="J24">
-        <v>10.13114425134247</v>
+        <v>10.16398436114523</v>
       </c>
       <c r="K24">
-        <v>15.54193289214159</v>
+        <v>14.85748952379878</v>
       </c>
       <c r="L24">
-        <v>5.557421087998604</v>
+        <v>12.16296897254567</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.936377831822028</v>
       </c>
       <c r="N24">
-        <v>9.42913346446697</v>
+        <v>5.518988164420755</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.51705306945255</v>
+        <v>9.582356211402743</v>
       </c>
       <c r="Q24">
-        <v>17.64665930347871</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.60042133629569</v>
+      </c>
+      <c r="S24">
+        <v>17.03286018690151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.41024403831645</v>
+        <v>22.00845272219138</v>
       </c>
       <c r="C25">
-        <v>12.60275689823491</v>
+        <v>12.90813044404888</v>
       </c>
       <c r="D25">
-        <v>9.644420982747915</v>
+        <v>9.562359310979209</v>
       </c>
       <c r="E25">
-        <v>9.002488521043416</v>
+        <v>8.874368259806827</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>28.28912876386799</v>
+        <v>26.90447691122038</v>
       </c>
       <c r="H25">
-        <v>1.955298038037717</v>
+        <v>1.911139583236704</v>
       </c>
       <c r="I25">
-        <v>2.643816959184254</v>
+        <v>2.585184165356918</v>
       </c>
       <c r="J25">
-        <v>10.00923432493709</v>
+        <v>10.12661003429214</v>
       </c>
       <c r="K25">
-        <v>15.52357261010047</v>
+        <v>14.92340469985972</v>
       </c>
       <c r="L25">
-        <v>5.451961706266065</v>
+        <v>12.39884879110507</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.712151369766172</v>
       </c>
       <c r="N25">
-        <v>8.909218414367857</v>
+        <v>5.417666094170659</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.63057227992064</v>
+        <v>9.056165203974849</v>
       </c>
       <c r="Q25">
-        <v>17.16532569784345</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.65626118577819</v>
+      </c>
+      <c r="S25">
+        <v>16.6534787089583</v>
       </c>
     </row>
   </sheetData>
